--- a/analysis/edcr/Results.xlsx
+++ b/analysis/edcr/Results.xlsx
@@ -432,25 +432,25 @@
         <v>0.001</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C2">
-        <v>0.01886792452830189</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.03703703703703703</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,25 +458,25 @@
         <v>0.002</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C3">
-        <v>0.01886792452830189</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.03703703703703703</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -484,25 +484,25 @@
         <v>0.003</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C4">
-        <v>0.01886792452830189</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0.03703703703703703</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -510,25 +510,25 @@
         <v>0.004</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C5">
-        <v>0.01886792452830189</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0.03703703703703703</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -536,25 +536,25 @@
         <v>0.005</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C6">
-        <v>0.01886792452830189</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.03703703703703703</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -562,25 +562,25 @@
         <v>0.006</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C7">
-        <v>0.01886792452830189</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0.03703703703703703</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -588,25 +588,25 @@
         <v>0.007</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C8">
-        <v>0.01886792452830189</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0.03703703703703703</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -614,25 +614,25 @@
         <v>0.008</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C9">
-        <v>0.01886792452830189</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.03703703703703703</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -640,25 +640,25 @@
         <v>0.009000000000000001</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C10">
-        <v>0.01886792452830189</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0.03703703703703703</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -666,25 +666,25 @@
         <v>0.01</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C11">
-        <v>0.01886792452830189</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.03703703703703703</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -692,25 +692,25 @@
         <v>0.011</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C12">
-        <v>0.01886792452830189</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0.03703703703703703</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -718,25 +718,25 @@
         <v>0.012</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C13">
-        <v>0.01886792452830189</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0.03703703703703703</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -744,25 +744,25 @@
         <v>0.013</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C14">
-        <v>0.01886792452830189</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0.03703703703703703</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -770,25 +770,25 @@
         <v>0.014</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C15">
-        <v>0.01886792452830189</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.03703703703703703</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -796,25 +796,25 @@
         <v>0.015</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C16">
-        <v>0.01886792452830189</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0.03703703703703703</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -822,25 +822,25 @@
         <v>0.016</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C17">
-        <v>0.01886792452830189</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0.03703703703703703</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -848,25 +848,25 @@
         <v>0.017</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C18">
-        <v>0.01886792452830189</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0.03703703703703703</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -874,25 +874,25 @@
         <v>0.018</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C19">
-        <v>0.01886792452830189</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.03703703703703703</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -900,25 +900,25 @@
         <v>0.019</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -926,25 +926,25 @@
         <v>0.02</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -952,25 +952,25 @@
         <v>0.021</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -978,25 +978,25 @@
         <v>0.022</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1004,25 +1004,25 @@
         <v>0.023</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1030,25 +1030,25 @@
         <v>0.024</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1056,25 +1056,25 @@
         <v>0.025</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1082,25 +1082,25 @@
         <v>0.026</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1108,25 +1108,25 @@
         <v>0.027</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1134,25 +1134,25 @@
         <v>0.028</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1160,25 +1160,25 @@
         <v>0.029</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1186,25 +1186,25 @@
         <v>0.03</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1212,25 +1212,25 @@
         <v>0.031</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1238,25 +1238,25 @@
         <v>0.032</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1264,25 +1264,25 @@
         <v>0.033</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1290,25 +1290,25 @@
         <v>0.034</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1316,25 +1316,25 @@
         <v>0.035</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1342,25 +1342,25 @@
         <v>0.036</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1368,25 +1368,25 @@
         <v>0.037</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1394,25 +1394,25 @@
         <v>0.038</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1420,25 +1420,25 @@
         <v>0.039</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1446,25 +1446,25 @@
         <v>0.04</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1472,25 +1472,25 @@
         <v>0.041</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1498,25 +1498,25 @@
         <v>0.042</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1524,25 +1524,25 @@
         <v>0.043</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1550,25 +1550,25 @@
         <v>0.044</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1576,25 +1576,25 @@
         <v>0.045</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1602,25 +1602,25 @@
         <v>0.046</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1628,25 +1628,25 @@
         <v>0.047</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G48">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1654,25 +1654,25 @@
         <v>0.048</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1680,25 +1680,25 @@
         <v>0.049</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1706,25 +1706,25 @@
         <v>0.05</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1732,25 +1732,25 @@
         <v>0.051</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1758,25 +1758,25 @@
         <v>0.052</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G53">
         <v>5</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1784,25 +1784,25 @@
         <v>0.053</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G54">
         <v>5</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1810,25 +1810,25 @@
         <v>0.054</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G55">
         <v>5</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1836,25 +1836,25 @@
         <v>0.055</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G56">
         <v>5</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1862,25 +1862,25 @@
         <v>0.056</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G57">
         <v>5</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1888,25 +1888,25 @@
         <v>0.057</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G58">
         <v>5</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1914,25 +1914,25 @@
         <v>0.058</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G59">
         <v>5</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1940,25 +1940,25 @@
         <v>0.059</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G60">
         <v>5</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1966,25 +1966,25 @@
         <v>0.06</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G61">
         <v>5</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1992,25 +1992,25 @@
         <v>0.061</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G62">
         <v>5</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2018,25 +2018,25 @@
         <v>0.062</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G63">
         <v>5</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2044,25 +2044,25 @@
         <v>0.063</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G64">
         <v>5</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2070,25 +2070,25 @@
         <v>0.064</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G65">
         <v>5</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2096,25 +2096,25 @@
         <v>0.065</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G66">
         <v>5</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2122,25 +2122,25 @@
         <v>0.066</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G67">
         <v>5</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2148,25 +2148,25 @@
         <v>0.067</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G68">
         <v>5</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2174,25 +2174,25 @@
         <v>0.068</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G69">
         <v>5</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2200,25 +2200,25 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G70">
         <v>5</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2226,25 +2226,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G71">
         <v>5</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2252,25 +2252,25 @@
         <v>0.07100000000000001</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G72">
         <v>5</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2278,25 +2278,25 @@
         <v>0.07200000000000001</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G73">
         <v>5</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2304,25 +2304,25 @@
         <v>0.073</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G74">
         <v>5</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2330,25 +2330,25 @@
         <v>0.074</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G75">
         <v>5</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2356,25 +2356,25 @@
         <v>0.075</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G76">
         <v>5</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2382,25 +2382,25 @@
         <v>0.076</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G77">
         <v>5</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2408,25 +2408,25 @@
         <v>0.077</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G78">
         <v>5</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2434,25 +2434,25 @@
         <v>0.078</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G79">
         <v>5</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2460,25 +2460,25 @@
         <v>0.079</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G80">
         <v>5</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2486,25 +2486,25 @@
         <v>0.08</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G81">
         <v>5</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2512,25 +2512,25 @@
         <v>0.081</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G82">
         <v>5</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2538,25 +2538,25 @@
         <v>0.082</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G83">
         <v>5</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2564,25 +2564,25 @@
         <v>0.083</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G84">
         <v>5</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2590,25 +2590,25 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G85">
         <v>5</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2616,25 +2616,25 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G86">
         <v>5</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2642,25 +2642,25 @@
         <v>0.08600000000000001</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G87">
         <v>5</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2668,25 +2668,25 @@
         <v>0.08700000000000001</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G88">
         <v>5</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2694,25 +2694,25 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G89">
         <v>5</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2720,25 +2720,25 @@
         <v>0.089</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G90">
         <v>5</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2746,25 +2746,25 @@
         <v>0.09</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G91">
         <v>5</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2772,25 +2772,25 @@
         <v>0.091</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G92">
         <v>5</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2798,25 +2798,25 @@
         <v>0.092</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G93">
         <v>5</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2824,25 +2824,25 @@
         <v>0.093</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G94">
         <v>5</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2850,25 +2850,25 @@
         <v>0.094</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G95">
         <v>5</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2876,25 +2876,25 @@
         <v>0.095</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G96">
         <v>5</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2902,25 +2902,25 @@
         <v>0.096</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G97">
         <v>5</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2928,25 +2928,25 @@
         <v>0.097</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G98">
         <v>5</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2954,25 +2954,25 @@
         <v>0.098</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G99">
         <v>5</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2980,25 +2980,25 @@
         <v>0.099</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.1589041095890411</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.2742316784869976</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G100">
         <v>5</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/edcr/Results.xlsx
+++ b/analysis/edcr/Results.xlsx
@@ -432,25 +432,25 @@
         <v>0.001</v>
       </c>
       <c r="B2">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D2">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,25 +458,25 @@
         <v>0.002</v>
       </c>
       <c r="B3">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D3">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -484,25 +484,25 @@
         <v>0.003</v>
       </c>
       <c r="B4">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D4">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -510,25 +510,25 @@
         <v>0.004</v>
       </c>
       <c r="B5">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D5">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -536,25 +536,25 @@
         <v>0.005</v>
       </c>
       <c r="B6">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D6">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -562,25 +562,25 @@
         <v>0.006</v>
       </c>
       <c r="B7">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D7">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -588,25 +588,25 @@
         <v>0.007</v>
       </c>
       <c r="B8">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D8">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -614,25 +614,25 @@
         <v>0.008</v>
       </c>
       <c r="B9">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D9">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -640,25 +640,25 @@
         <v>0.009000000000000001</v>
       </c>
       <c r="B10">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D10">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -666,25 +666,25 @@
         <v>0.01</v>
       </c>
       <c r="B11">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D11">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -692,25 +692,25 @@
         <v>0.011</v>
       </c>
       <c r="B12">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D12">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -718,25 +718,25 @@
         <v>0.012</v>
       </c>
       <c r="B13">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D13">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -744,25 +744,25 @@
         <v>0.013</v>
       </c>
       <c r="B14">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D14">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -770,25 +770,25 @@
         <v>0.014</v>
       </c>
       <c r="B15">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D15">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -796,25 +796,25 @@
         <v>0.015</v>
       </c>
       <c r="B16">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D16">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -822,25 +822,25 @@
         <v>0.016</v>
       </c>
       <c r="B17">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D17">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -848,25 +848,25 @@
         <v>0.017</v>
       </c>
       <c r="B18">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D18">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -874,25 +874,25 @@
         <v>0.018</v>
       </c>
       <c r="B19">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D19">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -900,25 +900,25 @@
         <v>0.019</v>
       </c>
       <c r="B20">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D20">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -926,25 +926,25 @@
         <v>0.02</v>
       </c>
       <c r="B21">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D21">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -952,25 +952,25 @@
         <v>0.021</v>
       </c>
       <c r="B22">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D22">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -978,25 +978,25 @@
         <v>0.022</v>
       </c>
       <c r="B23">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D23">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1004,25 +1004,25 @@
         <v>0.023</v>
       </c>
       <c r="B24">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D24">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1030,25 +1030,25 @@
         <v>0.024</v>
       </c>
       <c r="B25">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D25">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1056,25 +1056,25 @@
         <v>0.025</v>
       </c>
       <c r="B26">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D26">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1082,25 +1082,25 @@
         <v>0.026</v>
       </c>
       <c r="B27">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D27">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1108,25 +1108,25 @@
         <v>0.027</v>
       </c>
       <c r="B28">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D28">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1134,25 +1134,25 @@
         <v>0.028</v>
       </c>
       <c r="B29">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D29">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1160,25 +1160,25 @@
         <v>0.029</v>
       </c>
       <c r="B30">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D30">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1186,25 +1186,25 @@
         <v>0.03</v>
       </c>
       <c r="B31">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D31">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1212,25 +1212,25 @@
         <v>0.031</v>
       </c>
       <c r="B32">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D32">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1238,25 +1238,25 @@
         <v>0.032</v>
       </c>
       <c r="B33">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D33">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1264,25 +1264,25 @@
         <v>0.033</v>
       </c>
       <c r="B34">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D34">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1290,25 +1290,25 @@
         <v>0.034</v>
       </c>
       <c r="B35">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D35">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1316,25 +1316,25 @@
         <v>0.035</v>
       </c>
       <c r="B36">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D36">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1342,25 +1342,25 @@
         <v>0.036</v>
       </c>
       <c r="B37">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D37">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1368,25 +1368,25 @@
         <v>0.037</v>
       </c>
       <c r="B38">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D38">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1394,25 +1394,25 @@
         <v>0.038</v>
       </c>
       <c r="B39">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D39">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1420,25 +1420,25 @@
         <v>0.039</v>
       </c>
       <c r="B40">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D40">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1446,25 +1446,25 @@
         <v>0.04</v>
       </c>
       <c r="B41">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D41">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1472,25 +1472,25 @@
         <v>0.041</v>
       </c>
       <c r="B42">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D42">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1498,25 +1498,25 @@
         <v>0.042</v>
       </c>
       <c r="B43">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D43">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1524,25 +1524,25 @@
         <v>0.043</v>
       </c>
       <c r="B44">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D44">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1550,25 +1550,25 @@
         <v>0.044</v>
       </c>
       <c r="B45">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D45">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1576,25 +1576,25 @@
         <v>0.045</v>
       </c>
       <c r="B46">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D46">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1602,25 +1602,25 @@
         <v>0.046</v>
       </c>
       <c r="B47">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D47">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1628,25 +1628,25 @@
         <v>0.047</v>
       </c>
       <c r="B48">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D48">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1654,25 +1654,25 @@
         <v>0.048</v>
       </c>
       <c r="B49">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D49">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1680,25 +1680,25 @@
         <v>0.049</v>
       </c>
       <c r="B50">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D50">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1706,25 +1706,25 @@
         <v>0.05</v>
       </c>
       <c r="B51">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D51">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1732,25 +1732,25 @@
         <v>0.051</v>
       </c>
       <c r="B52">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D52">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1758,25 +1758,25 @@
         <v>0.052</v>
       </c>
       <c r="B53">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D53">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E53">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1784,25 +1784,25 @@
         <v>0.053</v>
       </c>
       <c r="B54">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D54">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E54">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1810,25 +1810,25 @@
         <v>0.054</v>
       </c>
       <c r="B55">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D55">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E55">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1836,25 +1836,25 @@
         <v>0.055</v>
       </c>
       <c r="B56">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D56">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E56">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1862,25 +1862,25 @@
         <v>0.056</v>
       </c>
       <c r="B57">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D57">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E57">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1888,25 +1888,25 @@
         <v>0.057</v>
       </c>
       <c r="B58">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D58">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E58">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1914,25 +1914,25 @@
         <v>0.058</v>
       </c>
       <c r="B59">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D59">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E59">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1940,25 +1940,25 @@
         <v>0.059</v>
       </c>
       <c r="B60">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D60">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E60">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1966,25 +1966,25 @@
         <v>0.06</v>
       </c>
       <c r="B61">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D61">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E61">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1992,25 +1992,25 @@
         <v>0.061</v>
       </c>
       <c r="B62">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D62">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E62">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2018,25 +2018,25 @@
         <v>0.062</v>
       </c>
       <c r="B63">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D63">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E63">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2044,25 +2044,25 @@
         <v>0.063</v>
       </c>
       <c r="B64">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D64">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E64">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2070,25 +2070,25 @@
         <v>0.064</v>
       </c>
       <c r="B65">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D65">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E65">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2096,25 +2096,25 @@
         <v>0.065</v>
       </c>
       <c r="B66">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D66">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E66">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2122,25 +2122,25 @@
         <v>0.066</v>
       </c>
       <c r="B67">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D67">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E67">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2148,25 +2148,25 @@
         <v>0.067</v>
       </c>
       <c r="B68">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D68">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E68">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2174,25 +2174,25 @@
         <v>0.068</v>
       </c>
       <c r="B69">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D69">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E69">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2200,25 +2200,25 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="B70">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D70">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E70">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2226,25 +2226,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B71">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D71">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E71">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2252,25 +2252,25 @@
         <v>0.07100000000000001</v>
       </c>
       <c r="B72">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D72">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E72">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2278,25 +2278,25 @@
         <v>0.07200000000000001</v>
       </c>
       <c r="B73">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D73">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E73">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2304,25 +2304,25 @@
         <v>0.073</v>
       </c>
       <c r="B74">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D74">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E74">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2330,25 +2330,25 @@
         <v>0.074</v>
       </c>
       <c r="B75">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D75">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E75">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2356,25 +2356,25 @@
         <v>0.075</v>
       </c>
       <c r="B76">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D76">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E76">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2382,25 +2382,25 @@
         <v>0.076</v>
       </c>
       <c r="B77">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D77">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E77">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2408,25 +2408,25 @@
         <v>0.077</v>
       </c>
       <c r="B78">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D78">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E78">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2434,25 +2434,25 @@
         <v>0.078</v>
       </c>
       <c r="B79">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D79">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E79">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2460,25 +2460,25 @@
         <v>0.079</v>
       </c>
       <c r="B80">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D80">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E80">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2486,25 +2486,25 @@
         <v>0.08</v>
       </c>
       <c r="B81">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D81">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E81">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2512,25 +2512,25 @@
         <v>0.081</v>
       </c>
       <c r="B82">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D82">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E82">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2538,25 +2538,25 @@
         <v>0.082</v>
       </c>
       <c r="B83">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D83">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E83">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2564,25 +2564,25 @@
         <v>0.083</v>
       </c>
       <c r="B84">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D84">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E84">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2590,25 +2590,25 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B85">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D85">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E85">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2616,25 +2616,25 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="B86">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D86">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E86">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2642,25 +2642,25 @@
         <v>0.08600000000000001</v>
       </c>
       <c r="B87">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D87">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E87">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2668,25 +2668,25 @@
         <v>0.08700000000000001</v>
       </c>
       <c r="B88">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D88">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E88">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2694,25 +2694,25 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="B89">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D89">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E89">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2720,25 +2720,25 @@
         <v>0.089</v>
       </c>
       <c r="B90">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D90">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E90">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2746,25 +2746,25 @@
         <v>0.09</v>
       </c>
       <c r="B91">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D91">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E91">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2772,25 +2772,25 @@
         <v>0.091</v>
       </c>
       <c r="B92">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D92">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E92">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2798,25 +2798,25 @@
         <v>0.092</v>
       </c>
       <c r="B93">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D93">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E93">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2824,25 +2824,25 @@
         <v>0.093</v>
       </c>
       <c r="B94">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D94">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E94">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2850,25 +2850,25 @@
         <v>0.094</v>
       </c>
       <c r="B95">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D95">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E95">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2876,25 +2876,25 @@
         <v>0.095</v>
       </c>
       <c r="B96">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D96">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E96">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2902,25 +2902,25 @@
         <v>0.096</v>
       </c>
       <c r="B97">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D97">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E97">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2928,25 +2928,25 @@
         <v>0.097</v>
       </c>
       <c r="B98">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D98">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E98">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2954,25 +2954,25 @@
         <v>0.098</v>
       </c>
       <c r="B99">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D99">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E99">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2980,25 +2980,25 @@
         <v>0.099</v>
       </c>
       <c r="B100">
-        <v>0.1589041095890411</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="D100">
-        <v>0.2742316784869976</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="E100">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/edcr/Results.xlsx
+++ b/analysis/edcr/Results.xlsx
@@ -432,25 +432,25 @@
         <v>0.001</v>
       </c>
       <c r="B2">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C2">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D2">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,25 +458,25 @@
         <v>0.002</v>
       </c>
       <c r="B3">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C3">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D3">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -484,25 +484,25 @@
         <v>0.003</v>
       </c>
       <c r="B4">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C4">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D4">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -510,25 +510,25 @@
         <v>0.004</v>
       </c>
       <c r="B5">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C5">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D5">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -536,25 +536,25 @@
         <v>0.005</v>
       </c>
       <c r="B6">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C6">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D6">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -562,25 +562,25 @@
         <v>0.006</v>
       </c>
       <c r="B7">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C7">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D7">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -588,25 +588,25 @@
         <v>0.007</v>
       </c>
       <c r="B8">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C8">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D8">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -614,25 +614,25 @@
         <v>0.008</v>
       </c>
       <c r="B9">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C9">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D9">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -640,25 +640,25 @@
         <v>0.009000000000000001</v>
       </c>
       <c r="B10">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C10">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D10">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -666,25 +666,25 @@
         <v>0.01</v>
       </c>
       <c r="B11">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C11">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D11">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -692,25 +692,25 @@
         <v>0.011</v>
       </c>
       <c r="B12">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C12">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D12">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -718,25 +718,25 @@
         <v>0.012</v>
       </c>
       <c r="B13">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C13">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D13">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -744,25 +744,25 @@
         <v>0.013</v>
       </c>
       <c r="B14">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C14">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D14">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -770,25 +770,25 @@
         <v>0.014</v>
       </c>
       <c r="B15">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C15">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D15">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -796,25 +796,25 @@
         <v>0.015</v>
       </c>
       <c r="B16">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C16">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D16">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -822,25 +822,25 @@
         <v>0.016</v>
       </c>
       <c r="B17">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C17">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D17">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -848,25 +848,25 @@
         <v>0.017</v>
       </c>
       <c r="B18">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C18">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D18">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -874,25 +874,25 @@
         <v>0.018</v>
       </c>
       <c r="B19">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C19">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D19">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -900,25 +900,25 @@
         <v>0.019</v>
       </c>
       <c r="B20">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C20">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D20">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -926,25 +926,25 @@
         <v>0.02</v>
       </c>
       <c r="B21">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C21">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D21">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -952,25 +952,25 @@
         <v>0.021</v>
       </c>
       <c r="B22">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C22">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D22">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -978,25 +978,25 @@
         <v>0.022</v>
       </c>
       <c r="B23">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C23">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D23">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1004,25 +1004,25 @@
         <v>0.023</v>
       </c>
       <c r="B24">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C24">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D24">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1030,25 +1030,25 @@
         <v>0.024</v>
       </c>
       <c r="B25">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C25">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D25">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1056,25 +1056,25 @@
         <v>0.025</v>
       </c>
       <c r="B26">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C26">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D26">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1082,25 +1082,25 @@
         <v>0.026</v>
       </c>
       <c r="B27">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C27">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D27">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1108,25 +1108,25 @@
         <v>0.027</v>
       </c>
       <c r="B28">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C28">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D28">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1134,25 +1134,25 @@
         <v>0.028</v>
       </c>
       <c r="B29">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C29">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D29">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1160,25 +1160,25 @@
         <v>0.029</v>
       </c>
       <c r="B30">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C30">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D30">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1186,25 +1186,25 @@
         <v>0.03</v>
       </c>
       <c r="B31">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C31">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D31">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1212,25 +1212,25 @@
         <v>0.031</v>
       </c>
       <c r="B32">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C32">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D32">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1238,25 +1238,25 @@
         <v>0.032</v>
       </c>
       <c r="B33">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C33">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D33">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1264,25 +1264,25 @@
         <v>0.033</v>
       </c>
       <c r="B34">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C34">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D34">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1290,25 +1290,25 @@
         <v>0.034</v>
       </c>
       <c r="B35">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C35">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D35">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1316,25 +1316,25 @@
         <v>0.035</v>
       </c>
       <c r="B36">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C36">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D36">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1342,25 +1342,25 @@
         <v>0.036</v>
       </c>
       <c r="B37">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C37">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D37">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1368,25 +1368,25 @@
         <v>0.037</v>
       </c>
       <c r="B38">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C38">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D38">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1394,25 +1394,25 @@
         <v>0.038</v>
       </c>
       <c r="B39">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C39">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D39">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1420,25 +1420,25 @@
         <v>0.039</v>
       </c>
       <c r="B40">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C40">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D40">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1446,25 +1446,25 @@
         <v>0.04</v>
       </c>
       <c r="B41">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C41">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D41">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1472,25 +1472,25 @@
         <v>0.041</v>
       </c>
       <c r="B42">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C42">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D42">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1498,25 +1498,25 @@
         <v>0.042</v>
       </c>
       <c r="B43">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C43">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D43">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1524,25 +1524,25 @@
         <v>0.043</v>
       </c>
       <c r="B44">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C44">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D44">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1550,25 +1550,25 @@
         <v>0.044</v>
       </c>
       <c r="B45">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C45">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D45">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1576,25 +1576,25 @@
         <v>0.045</v>
       </c>
       <c r="B46">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C46">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D46">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1602,25 +1602,25 @@
         <v>0.046</v>
       </c>
       <c r="B47">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C47">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D47">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1628,25 +1628,25 @@
         <v>0.047</v>
       </c>
       <c r="B48">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C48">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D48">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1654,25 +1654,25 @@
         <v>0.048</v>
       </c>
       <c r="B49">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C49">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D49">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1680,25 +1680,25 @@
         <v>0.049</v>
       </c>
       <c r="B50">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C50">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D50">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1706,25 +1706,25 @@
         <v>0.05</v>
       </c>
       <c r="B51">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C51">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D51">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1732,25 +1732,25 @@
         <v>0.051</v>
       </c>
       <c r="B52">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C52">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D52">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1758,25 +1758,25 @@
         <v>0.052</v>
       </c>
       <c r="B53">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C53">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D53">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1784,25 +1784,25 @@
         <v>0.053</v>
       </c>
       <c r="B54">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C54">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D54">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1810,25 +1810,25 @@
         <v>0.054</v>
       </c>
       <c r="B55">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C55">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D55">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1836,25 +1836,25 @@
         <v>0.055</v>
       </c>
       <c r="B56">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C56">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D56">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1862,25 +1862,25 @@
         <v>0.056</v>
       </c>
       <c r="B57">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C57">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D57">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1888,25 +1888,25 @@
         <v>0.057</v>
       </c>
       <c r="B58">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C58">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D58">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1914,25 +1914,25 @@
         <v>0.058</v>
       </c>
       <c r="B59">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C59">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D59">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1940,25 +1940,25 @@
         <v>0.059</v>
       </c>
       <c r="B60">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C60">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D60">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1966,25 +1966,25 @@
         <v>0.06</v>
       </c>
       <c r="B61">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C61">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D61">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1992,25 +1992,25 @@
         <v>0.061</v>
       </c>
       <c r="B62">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C62">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D62">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2018,25 +2018,25 @@
         <v>0.062</v>
       </c>
       <c r="B63">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C63">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D63">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2044,25 +2044,25 @@
         <v>0.063</v>
       </c>
       <c r="B64">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C64">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D64">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2070,25 +2070,25 @@
         <v>0.064</v>
       </c>
       <c r="B65">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C65">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D65">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2096,25 +2096,25 @@
         <v>0.065</v>
       </c>
       <c r="B66">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C66">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D66">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2122,25 +2122,25 @@
         <v>0.066</v>
       </c>
       <c r="B67">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C67">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D67">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2148,25 +2148,25 @@
         <v>0.067</v>
       </c>
       <c r="B68">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C68">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D68">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2174,25 +2174,25 @@
         <v>0.068</v>
       </c>
       <c r="B69">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C69">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D69">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2200,25 +2200,25 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="B70">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C70">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D70">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2226,25 +2226,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B71">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C71">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D71">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2252,25 +2252,25 @@
         <v>0.07100000000000001</v>
       </c>
       <c r="B72">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C72">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D72">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2278,25 +2278,25 @@
         <v>0.07200000000000001</v>
       </c>
       <c r="B73">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C73">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D73">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2304,25 +2304,25 @@
         <v>0.073</v>
       </c>
       <c r="B74">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C74">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D74">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2330,25 +2330,25 @@
         <v>0.074</v>
       </c>
       <c r="B75">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C75">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D75">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2356,25 +2356,25 @@
         <v>0.075</v>
       </c>
       <c r="B76">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C76">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D76">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2382,25 +2382,25 @@
         <v>0.076</v>
       </c>
       <c r="B77">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C77">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D77">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2408,25 +2408,25 @@
         <v>0.077</v>
       </c>
       <c r="B78">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C78">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D78">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2434,25 +2434,25 @@
         <v>0.078</v>
       </c>
       <c r="B79">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C79">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D79">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2460,25 +2460,25 @@
         <v>0.079</v>
       </c>
       <c r="B80">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C80">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D80">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2486,25 +2486,25 @@
         <v>0.08</v>
       </c>
       <c r="B81">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C81">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D81">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2512,25 +2512,25 @@
         <v>0.081</v>
       </c>
       <c r="B82">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C82">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D82">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2538,25 +2538,25 @@
         <v>0.082</v>
       </c>
       <c r="B83">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C83">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D83">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2564,25 +2564,25 @@
         <v>0.083</v>
       </c>
       <c r="B84">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C84">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D84">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2590,25 +2590,25 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B85">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C85">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D85">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2616,25 +2616,25 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="B86">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C86">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D86">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2642,25 +2642,25 @@
         <v>0.08600000000000001</v>
       </c>
       <c r="B87">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C87">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D87">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2668,25 +2668,25 @@
         <v>0.08700000000000001</v>
       </c>
       <c r="B88">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C88">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D88">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2694,25 +2694,25 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="B89">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C89">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D89">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2720,25 +2720,25 @@
         <v>0.089</v>
       </c>
       <c r="B90">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C90">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D90">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2746,25 +2746,25 @@
         <v>0.09</v>
       </c>
       <c r="B91">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C91">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D91">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2772,25 +2772,25 @@
         <v>0.091</v>
       </c>
       <c r="B92">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C92">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D92">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2798,25 +2798,25 @@
         <v>0.092</v>
       </c>
       <c r="B93">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C93">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D93">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2824,25 +2824,25 @@
         <v>0.093</v>
       </c>
       <c r="B94">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C94">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D94">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2850,25 +2850,25 @@
         <v>0.094</v>
       </c>
       <c r="B95">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C95">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D95">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2876,25 +2876,25 @@
         <v>0.095</v>
       </c>
       <c r="B96">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C96">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D96">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2902,25 +2902,25 @@
         <v>0.096</v>
       </c>
       <c r="B97">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C97">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D97">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2928,25 +2928,25 @@
         <v>0.097</v>
       </c>
       <c r="B98">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C98">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D98">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2954,25 +2954,25 @@
         <v>0.098</v>
       </c>
       <c r="B99">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C99">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D99">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2980,25 +2980,25 @@
         <v>0.099</v>
       </c>
       <c r="B100">
-        <v>0.1808118081180812</v>
+        <v>0.18125</v>
       </c>
       <c r="C100">
-        <v>0.6901408450704225</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D100">
-        <v>0.2865497076023392</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/edcr/Results.xlsx
+++ b/analysis/edcr/Results.xlsx
@@ -432,25 +432,25 @@
         <v>0.001</v>
       </c>
       <c r="B2">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C2">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D2">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,25 +458,25 @@
         <v>0.002</v>
       </c>
       <c r="B3">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C3">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D3">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -484,25 +484,25 @@
         <v>0.003</v>
       </c>
       <c r="B4">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C4">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D4">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -510,25 +510,25 @@
         <v>0.004</v>
       </c>
       <c r="B5">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C5">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D5">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -536,25 +536,25 @@
         <v>0.005</v>
       </c>
       <c r="B6">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C6">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D6">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -562,25 +562,25 @@
         <v>0.006</v>
       </c>
       <c r="B7">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C7">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D7">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -588,25 +588,25 @@
         <v>0.007</v>
       </c>
       <c r="B8">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C8">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D8">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -614,25 +614,25 @@
         <v>0.008</v>
       </c>
       <c r="B9">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C9">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D9">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -640,25 +640,25 @@
         <v>0.009000000000000001</v>
       </c>
       <c r="B10">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C10">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D10">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -666,25 +666,25 @@
         <v>0.01</v>
       </c>
       <c r="B11">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C11">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D11">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -692,25 +692,25 @@
         <v>0.011</v>
       </c>
       <c r="B12">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C12">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D12">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -718,25 +718,25 @@
         <v>0.012</v>
       </c>
       <c r="B13">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C13">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D13">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -744,25 +744,25 @@
         <v>0.013</v>
       </c>
       <c r="B14">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C14">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D14">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -770,25 +770,25 @@
         <v>0.014</v>
       </c>
       <c r="B15">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C15">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D15">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -796,25 +796,25 @@
         <v>0.015</v>
       </c>
       <c r="B16">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C16">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D16">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -822,25 +822,25 @@
         <v>0.016</v>
       </c>
       <c r="B17">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C17">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D17">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -848,25 +848,25 @@
         <v>0.017</v>
       </c>
       <c r="B18">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C18">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D18">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -874,25 +874,25 @@
         <v>0.018</v>
       </c>
       <c r="B19">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C19">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D19">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -900,25 +900,25 @@
         <v>0.019</v>
       </c>
       <c r="B20">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C20">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D20">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -926,25 +926,25 @@
         <v>0.02</v>
       </c>
       <c r="B21">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C21">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D21">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -952,25 +952,25 @@
         <v>0.021</v>
       </c>
       <c r="B22">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C22">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D22">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -978,25 +978,25 @@
         <v>0.022</v>
       </c>
       <c r="B23">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C23">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D23">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1004,25 +1004,25 @@
         <v>0.023</v>
       </c>
       <c r="B24">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C24">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D24">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1030,25 +1030,25 @@
         <v>0.024</v>
       </c>
       <c r="B25">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C25">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D25">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1056,25 +1056,25 @@
         <v>0.025</v>
       </c>
       <c r="B26">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C26">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D26">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1082,25 +1082,25 @@
         <v>0.026</v>
       </c>
       <c r="B27">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C27">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D27">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1108,25 +1108,25 @@
         <v>0.027</v>
       </c>
       <c r="B28">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C28">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D28">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1134,25 +1134,25 @@
         <v>0.028</v>
       </c>
       <c r="B29">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C29">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D29">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1160,25 +1160,25 @@
         <v>0.029</v>
       </c>
       <c r="B30">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C30">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D30">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1186,25 +1186,25 @@
         <v>0.03</v>
       </c>
       <c r="B31">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C31">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D31">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1212,25 +1212,25 @@
         <v>0.031</v>
       </c>
       <c r="B32">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C32">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D32">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1238,25 +1238,25 @@
         <v>0.032</v>
       </c>
       <c r="B33">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C33">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D33">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1264,25 +1264,25 @@
         <v>0.033</v>
       </c>
       <c r="B34">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C34">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D34">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1290,25 +1290,25 @@
         <v>0.034</v>
       </c>
       <c r="B35">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C35">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D35">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1316,25 +1316,25 @@
         <v>0.035</v>
       </c>
       <c r="B36">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C36">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D36">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1342,25 +1342,25 @@
         <v>0.036</v>
       </c>
       <c r="B37">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C37">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D37">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1368,25 +1368,25 @@
         <v>0.037</v>
       </c>
       <c r="B38">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C38">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D38">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1394,25 +1394,25 @@
         <v>0.038</v>
       </c>
       <c r="B39">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C39">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D39">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1420,25 +1420,25 @@
         <v>0.039</v>
       </c>
       <c r="B40">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C40">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D40">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1446,25 +1446,25 @@
         <v>0.04</v>
       </c>
       <c r="B41">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C41">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D41">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1472,25 +1472,25 @@
         <v>0.041</v>
       </c>
       <c r="B42">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C42">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D42">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1498,25 +1498,25 @@
         <v>0.042</v>
       </c>
       <c r="B43">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C43">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D43">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1524,25 +1524,25 @@
         <v>0.043</v>
       </c>
       <c r="B44">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C44">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D44">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1550,25 +1550,25 @@
         <v>0.044</v>
       </c>
       <c r="B45">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C45">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D45">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1576,25 +1576,25 @@
         <v>0.045</v>
       </c>
       <c r="B46">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C46">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D46">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1602,25 +1602,25 @@
         <v>0.046</v>
       </c>
       <c r="B47">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C47">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D47">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1628,25 +1628,25 @@
         <v>0.047</v>
       </c>
       <c r="B48">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C48">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D48">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1654,25 +1654,25 @@
         <v>0.048</v>
       </c>
       <c r="B49">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C49">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D49">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1680,25 +1680,25 @@
         <v>0.049</v>
       </c>
       <c r="B50">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C50">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D50">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1706,25 +1706,25 @@
         <v>0.05</v>
       </c>
       <c r="B51">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C51">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D51">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1732,25 +1732,25 @@
         <v>0.051</v>
       </c>
       <c r="B52">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C52">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D52">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1758,25 +1758,25 @@
         <v>0.052</v>
       </c>
       <c r="B53">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C53">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D53">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1784,25 +1784,25 @@
         <v>0.053</v>
       </c>
       <c r="B54">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C54">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D54">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1810,25 +1810,25 @@
         <v>0.054</v>
       </c>
       <c r="B55">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C55">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D55">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1836,25 +1836,25 @@
         <v>0.055</v>
       </c>
       <c r="B56">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C56">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D56">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1862,25 +1862,25 @@
         <v>0.056</v>
       </c>
       <c r="B57">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C57">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D57">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1888,25 +1888,25 @@
         <v>0.057</v>
       </c>
       <c r="B58">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C58">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D58">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1914,25 +1914,25 @@
         <v>0.058</v>
       </c>
       <c r="B59">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C59">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D59">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1940,25 +1940,25 @@
         <v>0.059</v>
       </c>
       <c r="B60">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C60">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D60">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1966,25 +1966,25 @@
         <v>0.06</v>
       </c>
       <c r="B61">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C61">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D61">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1992,25 +1992,25 @@
         <v>0.061</v>
       </c>
       <c r="B62">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C62">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D62">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2018,25 +2018,25 @@
         <v>0.062</v>
       </c>
       <c r="B63">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C63">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D63">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2044,25 +2044,25 @@
         <v>0.063</v>
       </c>
       <c r="B64">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C64">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D64">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2070,25 +2070,25 @@
         <v>0.064</v>
       </c>
       <c r="B65">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C65">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D65">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2096,25 +2096,25 @@
         <v>0.065</v>
       </c>
       <c r="B66">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C66">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D66">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2122,25 +2122,25 @@
         <v>0.066</v>
       </c>
       <c r="B67">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C67">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D67">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F67">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H67">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2148,25 +2148,25 @@
         <v>0.067</v>
       </c>
       <c r="B68">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C68">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D68">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F68">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H68">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2174,25 +2174,25 @@
         <v>0.068</v>
       </c>
       <c r="B69">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C69">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D69">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F69">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H69">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2200,25 +2200,25 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="B70">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C70">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D70">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F70">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H70">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2226,25 +2226,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B71">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C71">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D71">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F71">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H71">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2252,25 +2252,25 @@
         <v>0.07100000000000001</v>
       </c>
       <c r="B72">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C72">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D72">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F72">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H72">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2278,25 +2278,25 @@
         <v>0.07200000000000001</v>
       </c>
       <c r="B73">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C73">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D73">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F73">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H73">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2304,25 +2304,25 @@
         <v>0.073</v>
       </c>
       <c r="B74">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C74">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D74">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F74">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H74">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2330,25 +2330,25 @@
         <v>0.074</v>
       </c>
       <c r="B75">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C75">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D75">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F75">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H75">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2356,25 +2356,25 @@
         <v>0.075</v>
       </c>
       <c r="B76">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C76">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D76">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F76">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H76">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2382,25 +2382,25 @@
         <v>0.076</v>
       </c>
       <c r="B77">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C77">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D77">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F77">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H77">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2408,25 +2408,25 @@
         <v>0.077</v>
       </c>
       <c r="B78">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C78">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D78">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F78">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H78">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2434,25 +2434,25 @@
         <v>0.078</v>
       </c>
       <c r="B79">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C79">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D79">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F79">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H79">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2460,25 +2460,25 @@
         <v>0.079</v>
       </c>
       <c r="B80">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C80">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D80">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F80">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H80">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2486,25 +2486,25 @@
         <v>0.08</v>
       </c>
       <c r="B81">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C81">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D81">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F81">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H81">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2512,25 +2512,25 @@
         <v>0.081</v>
       </c>
       <c r="B82">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C82">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D82">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F82">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H82">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2538,25 +2538,25 @@
         <v>0.082</v>
       </c>
       <c r="B83">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C83">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D83">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F83">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H83">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2564,25 +2564,25 @@
         <v>0.083</v>
       </c>
       <c r="B84">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C84">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D84">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F84">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H84">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2590,25 +2590,25 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B85">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C85">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D85">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F85">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H85">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2616,25 +2616,25 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="B86">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C86">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D86">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F86">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H86">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2642,25 +2642,25 @@
         <v>0.08600000000000001</v>
       </c>
       <c r="B87">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C87">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D87">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F87">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H87">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2668,25 +2668,25 @@
         <v>0.08700000000000001</v>
       </c>
       <c r="B88">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C88">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D88">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F88">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H88">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2694,25 +2694,25 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="B89">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C89">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D89">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F89">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H89">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2720,25 +2720,25 @@
         <v>0.089</v>
       </c>
       <c r="B90">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C90">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D90">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F90">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H90">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2746,25 +2746,25 @@
         <v>0.09</v>
       </c>
       <c r="B91">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C91">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D91">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F91">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H91">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2772,25 +2772,25 @@
         <v>0.091</v>
       </c>
       <c r="B92">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C92">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D92">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F92">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H92">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2798,25 +2798,25 @@
         <v>0.092</v>
       </c>
       <c r="B93">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C93">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D93">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F93">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H93">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2824,25 +2824,25 @@
         <v>0.093</v>
       </c>
       <c r="B94">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C94">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D94">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F94">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H94">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2850,25 +2850,25 @@
         <v>0.094</v>
       </c>
       <c r="B95">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C95">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D95">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F95">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H95">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2876,25 +2876,25 @@
         <v>0.095</v>
       </c>
       <c r="B96">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C96">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D96">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F96">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H96">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2902,25 +2902,25 @@
         <v>0.096</v>
       </c>
       <c r="B97">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C97">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D97">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F97">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H97">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2928,25 +2928,25 @@
         <v>0.097</v>
       </c>
       <c r="B98">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C98">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D98">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F98">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H98">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2954,25 +2954,25 @@
         <v>0.098</v>
       </c>
       <c r="B99">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C99">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D99">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F99">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H99">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2980,25 +2980,25 @@
         <v>0.099</v>
       </c>
       <c r="B100">
-        <v>0.18125</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C100">
-        <v>0.4603174603174603</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="D100">
-        <v>0.2600896860986547</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F100">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H100">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/edcr/Results.xlsx
+++ b/analysis/edcr/Results.xlsx
@@ -432,25 +432,25 @@
         <v>0.001</v>
       </c>
       <c r="B2">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C2">
         <v>0.4262295081967213</v>
       </c>
       <c r="D2">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,25 +458,25 @@
         <v>0.002</v>
       </c>
       <c r="B3">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C3">
         <v>0.4262295081967213</v>
       </c>
       <c r="D3">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -484,25 +484,25 @@
         <v>0.003</v>
       </c>
       <c r="B4">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C4">
         <v>0.4262295081967213</v>
       </c>
       <c r="D4">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -510,25 +510,25 @@
         <v>0.004</v>
       </c>
       <c r="B5">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C5">
         <v>0.4262295081967213</v>
       </c>
       <c r="D5">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -536,25 +536,25 @@
         <v>0.005</v>
       </c>
       <c r="B6">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C6">
         <v>0.4262295081967213</v>
       </c>
       <c r="D6">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -562,25 +562,25 @@
         <v>0.006</v>
       </c>
       <c r="B7">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C7">
         <v>0.4262295081967213</v>
       </c>
       <c r="D7">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -588,25 +588,25 @@
         <v>0.007</v>
       </c>
       <c r="B8">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C8">
         <v>0.4262295081967213</v>
       </c>
       <c r="D8">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -614,25 +614,25 @@
         <v>0.008</v>
       </c>
       <c r="B9">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C9">
         <v>0.4262295081967213</v>
       </c>
       <c r="D9">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -640,25 +640,25 @@
         <v>0.009000000000000001</v>
       </c>
       <c r="B10">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C10">
         <v>0.4262295081967213</v>
       </c>
       <c r="D10">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -666,25 +666,25 @@
         <v>0.01</v>
       </c>
       <c r="B11">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C11">
         <v>0.4262295081967213</v>
       </c>
       <c r="D11">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -692,25 +692,25 @@
         <v>0.011</v>
       </c>
       <c r="B12">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C12">
         <v>0.4262295081967213</v>
       </c>
       <c r="D12">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -718,25 +718,25 @@
         <v>0.012</v>
       </c>
       <c r="B13">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C13">
         <v>0.4262295081967213</v>
       </c>
       <c r="D13">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -744,25 +744,25 @@
         <v>0.013</v>
       </c>
       <c r="B14">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C14">
         <v>0.4262295081967213</v>
       </c>
       <c r="D14">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -770,25 +770,25 @@
         <v>0.014</v>
       </c>
       <c r="B15">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C15">
         <v>0.4262295081967213</v>
       </c>
       <c r="D15">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -796,25 +796,25 @@
         <v>0.015</v>
       </c>
       <c r="B16">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C16">
         <v>0.4262295081967213</v>
       </c>
       <c r="D16">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -822,25 +822,25 @@
         <v>0.016</v>
       </c>
       <c r="B17">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C17">
         <v>0.4262295081967213</v>
       </c>
       <c r="D17">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -848,25 +848,25 @@
         <v>0.017</v>
       </c>
       <c r="B18">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C18">
         <v>0.4262295081967213</v>
       </c>
       <c r="D18">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -874,25 +874,25 @@
         <v>0.018</v>
       </c>
       <c r="B19">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C19">
         <v>0.4262295081967213</v>
       </c>
       <c r="D19">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -900,25 +900,25 @@
         <v>0.019</v>
       </c>
       <c r="B20">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C20">
         <v>0.4262295081967213</v>
       </c>
       <c r="D20">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -926,25 +926,25 @@
         <v>0.02</v>
       </c>
       <c r="B21">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C21">
         <v>0.4262295081967213</v>
       </c>
       <c r="D21">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -952,25 +952,25 @@
         <v>0.021</v>
       </c>
       <c r="B22">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C22">
         <v>0.4262295081967213</v>
       </c>
       <c r="D22">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -978,25 +978,25 @@
         <v>0.022</v>
       </c>
       <c r="B23">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C23">
         <v>0.4262295081967213</v>
       </c>
       <c r="D23">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1004,25 +1004,25 @@
         <v>0.023</v>
       </c>
       <c r="B24">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C24">
         <v>0.4262295081967213</v>
       </c>
       <c r="D24">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1030,25 +1030,25 @@
         <v>0.024</v>
       </c>
       <c r="B25">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C25">
         <v>0.4262295081967213</v>
       </c>
       <c r="D25">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1056,25 +1056,25 @@
         <v>0.025</v>
       </c>
       <c r="B26">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C26">
         <v>0.4262295081967213</v>
       </c>
       <c r="D26">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1082,25 +1082,25 @@
         <v>0.026</v>
       </c>
       <c r="B27">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C27">
         <v>0.4262295081967213</v>
       </c>
       <c r="D27">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1108,25 +1108,25 @@
         <v>0.027</v>
       </c>
       <c r="B28">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C28">
         <v>0.4262295081967213</v>
       </c>
       <c r="D28">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1134,25 +1134,25 @@
         <v>0.028</v>
       </c>
       <c r="B29">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C29">
         <v>0.4262295081967213</v>
       </c>
       <c r="D29">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1160,25 +1160,25 @@
         <v>0.029</v>
       </c>
       <c r="B30">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C30">
         <v>0.4262295081967213</v>
       </c>
       <c r="D30">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1186,25 +1186,25 @@
         <v>0.03</v>
       </c>
       <c r="B31">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C31">
         <v>0.4262295081967213</v>
       </c>
       <c r="D31">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1212,25 +1212,25 @@
         <v>0.031</v>
       </c>
       <c r="B32">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C32">
         <v>0.4262295081967213</v>
       </c>
       <c r="D32">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1238,25 +1238,25 @@
         <v>0.032</v>
       </c>
       <c r="B33">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C33">
         <v>0.4262295081967213</v>
       </c>
       <c r="D33">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1264,25 +1264,25 @@
         <v>0.033</v>
       </c>
       <c r="B34">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C34">
         <v>0.4262295081967213</v>
       </c>
       <c r="D34">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1290,25 +1290,25 @@
         <v>0.034</v>
       </c>
       <c r="B35">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C35">
         <v>0.4262295081967213</v>
       </c>
       <c r="D35">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1316,25 +1316,25 @@
         <v>0.035</v>
       </c>
       <c r="B36">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C36">
         <v>0.4262295081967213</v>
       </c>
       <c r="D36">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1342,25 +1342,25 @@
         <v>0.036</v>
       </c>
       <c r="B37">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C37">
         <v>0.4262295081967213</v>
       </c>
       <c r="D37">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1368,25 +1368,25 @@
         <v>0.037</v>
       </c>
       <c r="B38">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C38">
         <v>0.4262295081967213</v>
       </c>
       <c r="D38">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1394,25 +1394,25 @@
         <v>0.038</v>
       </c>
       <c r="B39">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C39">
         <v>0.4262295081967213</v>
       </c>
       <c r="D39">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1420,25 +1420,25 @@
         <v>0.039</v>
       </c>
       <c r="B40">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C40">
         <v>0.4262295081967213</v>
       </c>
       <c r="D40">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1446,25 +1446,25 @@
         <v>0.04</v>
       </c>
       <c r="B41">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C41">
         <v>0.4262295081967213</v>
       </c>
       <c r="D41">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1472,25 +1472,25 @@
         <v>0.041</v>
       </c>
       <c r="B42">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C42">
         <v>0.4262295081967213</v>
       </c>
       <c r="D42">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1498,25 +1498,25 @@
         <v>0.042</v>
       </c>
       <c r="B43">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C43">
         <v>0.4262295081967213</v>
       </c>
       <c r="D43">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1524,25 +1524,25 @@
         <v>0.043</v>
       </c>
       <c r="B44">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C44">
         <v>0.4262295081967213</v>
       </c>
       <c r="D44">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1550,25 +1550,25 @@
         <v>0.044</v>
       </c>
       <c r="B45">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C45">
         <v>0.4262295081967213</v>
       </c>
       <c r="D45">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1576,25 +1576,25 @@
         <v>0.045</v>
       </c>
       <c r="B46">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C46">
         <v>0.4262295081967213</v>
       </c>
       <c r="D46">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1602,25 +1602,25 @@
         <v>0.046</v>
       </c>
       <c r="B47">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C47">
         <v>0.4262295081967213</v>
       </c>
       <c r="D47">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1628,25 +1628,25 @@
         <v>0.047</v>
       </c>
       <c r="B48">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C48">
         <v>0.4262295081967213</v>
       </c>
       <c r="D48">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1654,25 +1654,25 @@
         <v>0.048</v>
       </c>
       <c r="B49">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C49">
         <v>0.4262295081967213</v>
       </c>
       <c r="D49">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1680,25 +1680,25 @@
         <v>0.049</v>
       </c>
       <c r="B50">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C50">
         <v>0.4262295081967213</v>
       </c>
       <c r="D50">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1706,25 +1706,25 @@
         <v>0.05</v>
       </c>
       <c r="B51">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C51">
         <v>0.4262295081967213</v>
       </c>
       <c r="D51">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1732,25 +1732,25 @@
         <v>0.051</v>
       </c>
       <c r="B52">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C52">
         <v>0.4262295081967213</v>
       </c>
       <c r="D52">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1758,25 +1758,25 @@
         <v>0.052</v>
       </c>
       <c r="B53">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C53">
         <v>0.4262295081967213</v>
       </c>
       <c r="D53">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1784,25 +1784,25 @@
         <v>0.053</v>
       </c>
       <c r="B54">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C54">
         <v>0.4262295081967213</v>
       </c>
       <c r="D54">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1810,25 +1810,25 @@
         <v>0.054</v>
       </c>
       <c r="B55">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C55">
         <v>0.4262295081967213</v>
       </c>
       <c r="D55">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1836,25 +1836,25 @@
         <v>0.055</v>
       </c>
       <c r="B56">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C56">
         <v>0.4262295081967213</v>
       </c>
       <c r="D56">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1862,25 +1862,25 @@
         <v>0.056</v>
       </c>
       <c r="B57">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C57">
         <v>0.4262295081967213</v>
       </c>
       <c r="D57">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1888,25 +1888,25 @@
         <v>0.057</v>
       </c>
       <c r="B58">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C58">
         <v>0.4262295081967213</v>
       </c>
       <c r="D58">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1914,25 +1914,25 @@
         <v>0.058</v>
       </c>
       <c r="B59">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C59">
         <v>0.4262295081967213</v>
       </c>
       <c r="D59">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1940,25 +1940,25 @@
         <v>0.059</v>
       </c>
       <c r="B60">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C60">
         <v>0.4262295081967213</v>
       </c>
       <c r="D60">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1966,25 +1966,25 @@
         <v>0.06</v>
       </c>
       <c r="B61">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C61">
         <v>0.4262295081967213</v>
       </c>
       <c r="D61">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1992,25 +1992,25 @@
         <v>0.061</v>
       </c>
       <c r="B62">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C62">
         <v>0.4262295081967213</v>
       </c>
       <c r="D62">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2018,25 +2018,25 @@
         <v>0.062</v>
       </c>
       <c r="B63">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C63">
         <v>0.4262295081967213</v>
       </c>
       <c r="D63">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2044,25 +2044,25 @@
         <v>0.063</v>
       </c>
       <c r="B64">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C64">
         <v>0.4262295081967213</v>
       </c>
       <c r="D64">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2070,25 +2070,25 @@
         <v>0.064</v>
       </c>
       <c r="B65">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C65">
         <v>0.4262295081967213</v>
       </c>
       <c r="D65">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2096,25 +2096,25 @@
         <v>0.065</v>
       </c>
       <c r="B66">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C66">
         <v>0.4262295081967213</v>
       </c>
       <c r="D66">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2122,25 +2122,25 @@
         <v>0.066</v>
       </c>
       <c r="B67">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C67">
         <v>0.4262295081967213</v>
       </c>
       <c r="D67">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E67">
         <v>28</v>
       </c>
       <c r="F67">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G67">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H67">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2148,25 +2148,25 @@
         <v>0.067</v>
       </c>
       <c r="B68">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C68">
         <v>0.4262295081967213</v>
       </c>
       <c r="D68">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E68">
         <v>28</v>
       </c>
       <c r="F68">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G68">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H68">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2174,25 +2174,25 @@
         <v>0.068</v>
       </c>
       <c r="B69">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C69">
         <v>0.4262295081967213</v>
       </c>
       <c r="D69">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E69">
         <v>28</v>
       </c>
       <c r="F69">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G69">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H69">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2200,25 +2200,25 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="B70">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C70">
         <v>0.4262295081967213</v>
       </c>
       <c r="D70">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E70">
         <v>28</v>
       </c>
       <c r="F70">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G70">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H70">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2226,25 +2226,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B71">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C71">
         <v>0.4262295081967213</v>
       </c>
       <c r="D71">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E71">
         <v>28</v>
       </c>
       <c r="F71">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G71">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H71">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2252,25 +2252,25 @@
         <v>0.07100000000000001</v>
       </c>
       <c r="B72">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C72">
         <v>0.4262295081967213</v>
       </c>
       <c r="D72">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E72">
         <v>28</v>
       </c>
       <c r="F72">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G72">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H72">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2278,25 +2278,25 @@
         <v>0.07200000000000001</v>
       </c>
       <c r="B73">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C73">
         <v>0.4262295081967213</v>
       </c>
       <c r="D73">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E73">
         <v>28</v>
       </c>
       <c r="F73">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G73">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H73">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2304,25 +2304,25 @@
         <v>0.073</v>
       </c>
       <c r="B74">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C74">
         <v>0.4262295081967213</v>
       </c>
       <c r="D74">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E74">
         <v>28</v>
       </c>
       <c r="F74">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G74">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H74">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2330,25 +2330,25 @@
         <v>0.074</v>
       </c>
       <c r="B75">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C75">
         <v>0.4262295081967213</v>
       </c>
       <c r="D75">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E75">
         <v>28</v>
       </c>
       <c r="F75">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G75">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H75">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2356,25 +2356,25 @@
         <v>0.075</v>
       </c>
       <c r="B76">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C76">
         <v>0.4262295081967213</v>
       </c>
       <c r="D76">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E76">
         <v>28</v>
       </c>
       <c r="F76">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G76">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H76">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2382,25 +2382,25 @@
         <v>0.076</v>
       </c>
       <c r="B77">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C77">
         <v>0.4262295081967213</v>
       </c>
       <c r="D77">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E77">
         <v>28</v>
       </c>
       <c r="F77">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G77">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H77">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2408,25 +2408,25 @@
         <v>0.077</v>
       </c>
       <c r="B78">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C78">
         <v>0.4262295081967213</v>
       </c>
       <c r="D78">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E78">
         <v>28</v>
       </c>
       <c r="F78">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G78">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H78">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2434,25 +2434,25 @@
         <v>0.078</v>
       </c>
       <c r="B79">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C79">
         <v>0.4262295081967213</v>
       </c>
       <c r="D79">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E79">
         <v>28</v>
       </c>
       <c r="F79">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G79">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H79">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2460,25 +2460,25 @@
         <v>0.079</v>
       </c>
       <c r="B80">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C80">
         <v>0.4262295081967213</v>
       </c>
       <c r="D80">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E80">
         <v>28</v>
       </c>
       <c r="F80">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G80">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H80">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2486,25 +2486,25 @@
         <v>0.08</v>
       </c>
       <c r="B81">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C81">
         <v>0.4262295081967213</v>
       </c>
       <c r="D81">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E81">
         <v>28</v>
       </c>
       <c r="F81">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G81">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H81">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2512,25 +2512,25 @@
         <v>0.081</v>
       </c>
       <c r="B82">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C82">
         <v>0.4262295081967213</v>
       </c>
       <c r="D82">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E82">
         <v>28</v>
       </c>
       <c r="F82">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G82">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H82">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2538,25 +2538,25 @@
         <v>0.082</v>
       </c>
       <c r="B83">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C83">
         <v>0.4262295081967213</v>
       </c>
       <c r="D83">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E83">
         <v>28</v>
       </c>
       <c r="F83">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G83">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H83">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2564,25 +2564,25 @@
         <v>0.083</v>
       </c>
       <c r="B84">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C84">
         <v>0.4262295081967213</v>
       </c>
       <c r="D84">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E84">
         <v>28</v>
       </c>
       <c r="F84">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G84">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H84">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2590,25 +2590,25 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B85">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C85">
         <v>0.4262295081967213</v>
       </c>
       <c r="D85">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E85">
         <v>28</v>
       </c>
       <c r="F85">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G85">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H85">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2616,25 +2616,25 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="B86">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C86">
         <v>0.4262295081967213</v>
       </c>
       <c r="D86">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E86">
         <v>28</v>
       </c>
       <c r="F86">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G86">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H86">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2642,25 +2642,25 @@
         <v>0.08600000000000001</v>
       </c>
       <c r="B87">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C87">
         <v>0.4262295081967213</v>
       </c>
       <c r="D87">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E87">
         <v>28</v>
       </c>
       <c r="F87">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G87">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H87">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2668,25 +2668,25 @@
         <v>0.08700000000000001</v>
       </c>
       <c r="B88">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C88">
         <v>0.4262295081967213</v>
       </c>
       <c r="D88">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E88">
         <v>28</v>
       </c>
       <c r="F88">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G88">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H88">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2694,25 +2694,25 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="B89">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C89">
         <v>0.4262295081967213</v>
       </c>
       <c r="D89">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E89">
         <v>28</v>
       </c>
       <c r="F89">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G89">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H89">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2720,25 +2720,25 @@
         <v>0.089</v>
       </c>
       <c r="B90">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C90">
         <v>0.4262295081967213</v>
       </c>
       <c r="D90">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E90">
         <v>28</v>
       </c>
       <c r="F90">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G90">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H90">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2746,25 +2746,25 @@
         <v>0.09</v>
       </c>
       <c r="B91">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C91">
         <v>0.4262295081967213</v>
       </c>
       <c r="D91">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E91">
         <v>28</v>
       </c>
       <c r="F91">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G91">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H91">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2772,25 +2772,25 @@
         <v>0.091</v>
       </c>
       <c r="B92">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C92">
         <v>0.4262295081967213</v>
       </c>
       <c r="D92">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E92">
         <v>28</v>
       </c>
       <c r="F92">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G92">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H92">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2798,25 +2798,25 @@
         <v>0.092</v>
       </c>
       <c r="B93">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C93">
         <v>0.4262295081967213</v>
       </c>
       <c r="D93">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E93">
         <v>28</v>
       </c>
       <c r="F93">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G93">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H93">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2824,25 +2824,25 @@
         <v>0.093</v>
       </c>
       <c r="B94">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C94">
         <v>0.4262295081967213</v>
       </c>
       <c r="D94">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E94">
         <v>28</v>
       </c>
       <c r="F94">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G94">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H94">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2850,25 +2850,25 @@
         <v>0.094</v>
       </c>
       <c r="B95">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C95">
         <v>0.4262295081967213</v>
       </c>
       <c r="D95">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E95">
         <v>28</v>
       </c>
       <c r="F95">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G95">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H95">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2876,25 +2876,25 @@
         <v>0.095</v>
       </c>
       <c r="B96">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C96">
         <v>0.4262295081967213</v>
       </c>
       <c r="D96">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E96">
         <v>28</v>
       </c>
       <c r="F96">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G96">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H96">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2902,25 +2902,25 @@
         <v>0.096</v>
       </c>
       <c r="B97">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C97">
         <v>0.4262295081967213</v>
       </c>
       <c r="D97">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E97">
         <v>28</v>
       </c>
       <c r="F97">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G97">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H97">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2928,25 +2928,25 @@
         <v>0.097</v>
       </c>
       <c r="B98">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C98">
         <v>0.4262295081967213</v>
       </c>
       <c r="D98">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E98">
         <v>28</v>
       </c>
       <c r="F98">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G98">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H98">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2954,25 +2954,25 @@
         <v>0.098</v>
       </c>
       <c r="B99">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C99">
         <v>0.4262295081967213</v>
       </c>
       <c r="D99">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E99">
         <v>28</v>
       </c>
       <c r="F99">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G99">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H99">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2980,25 +2980,25 @@
         <v>0.099</v>
       </c>
       <c r="B100">
-        <v>0.2385321100917431</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C100">
         <v>0.4262295081967213</v>
       </c>
       <c r="D100">
-        <v>0.3058823529411765</v>
+        <v>0.3537414965986394</v>
       </c>
       <c r="E100">
         <v>28</v>
       </c>
       <c r="F100">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G100">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H100">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/edcr/Results.xlsx
+++ b/analysis/edcr/Results.xlsx
@@ -432,25 +432,25 @@
         <v>0.001</v>
       </c>
       <c r="B2">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C2">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D2">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,25 +458,25 @@
         <v>0.002</v>
       </c>
       <c r="B3">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C3">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D3">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -484,25 +484,25 @@
         <v>0.003</v>
       </c>
       <c r="B4">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C4">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D4">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -510,25 +510,25 @@
         <v>0.004</v>
       </c>
       <c r="B5">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C5">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D5">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -536,25 +536,25 @@
         <v>0.005</v>
       </c>
       <c r="B6">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C6">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D6">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -562,25 +562,25 @@
         <v>0.006</v>
       </c>
       <c r="B7">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C7">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D7">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -588,25 +588,25 @@
         <v>0.007</v>
       </c>
       <c r="B8">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C8">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D8">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -614,25 +614,25 @@
         <v>0.008</v>
       </c>
       <c r="B9">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C9">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D9">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -640,25 +640,25 @@
         <v>0.009000000000000001</v>
       </c>
       <c r="B10">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C10">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D10">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -666,25 +666,25 @@
         <v>0.01</v>
       </c>
       <c r="B11">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C11">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D11">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -692,25 +692,25 @@
         <v>0.011</v>
       </c>
       <c r="B12">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C12">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D12">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -718,25 +718,25 @@
         <v>0.012</v>
       </c>
       <c r="B13">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C13">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D13">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -744,25 +744,25 @@
         <v>0.013</v>
       </c>
       <c r="B14">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C14">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D14">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -770,25 +770,25 @@
         <v>0.014</v>
       </c>
       <c r="B15">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C15">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D15">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -796,25 +796,25 @@
         <v>0.015</v>
       </c>
       <c r="B16">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C16">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D16">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -822,25 +822,25 @@
         <v>0.016</v>
       </c>
       <c r="B17">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C17">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D17">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -848,25 +848,25 @@
         <v>0.017</v>
       </c>
       <c r="B18">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C18">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D18">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -874,25 +874,25 @@
         <v>0.018</v>
       </c>
       <c r="B19">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C19">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D19">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -900,25 +900,25 @@
         <v>0.019</v>
       </c>
       <c r="B20">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C20">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D20">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -926,25 +926,25 @@
         <v>0.02</v>
       </c>
       <c r="B21">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C21">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D21">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -952,25 +952,25 @@
         <v>0.021</v>
       </c>
       <c r="B22">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C22">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D22">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -978,25 +978,25 @@
         <v>0.022</v>
       </c>
       <c r="B23">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C23">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D23">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1004,25 +1004,25 @@
         <v>0.023</v>
       </c>
       <c r="B24">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C24">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D24">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1030,25 +1030,25 @@
         <v>0.024</v>
       </c>
       <c r="B25">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C25">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D25">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1056,25 +1056,25 @@
         <v>0.025</v>
       </c>
       <c r="B26">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C26">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D26">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1082,25 +1082,25 @@
         <v>0.026</v>
       </c>
       <c r="B27">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C27">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D27">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1108,25 +1108,25 @@
         <v>0.027</v>
       </c>
       <c r="B28">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C28">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D28">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1134,25 +1134,25 @@
         <v>0.028</v>
       </c>
       <c r="B29">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C29">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D29">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1160,25 +1160,25 @@
         <v>0.029</v>
       </c>
       <c r="B30">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C30">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D30">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1186,25 +1186,25 @@
         <v>0.03</v>
       </c>
       <c r="B31">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C31">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D31">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1212,25 +1212,25 @@
         <v>0.031</v>
       </c>
       <c r="B32">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C32">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D32">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1238,25 +1238,25 @@
         <v>0.032</v>
       </c>
       <c r="B33">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C33">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D33">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1264,25 +1264,25 @@
         <v>0.033</v>
       </c>
       <c r="B34">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C34">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D34">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1290,25 +1290,25 @@
         <v>0.034</v>
       </c>
       <c r="B35">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C35">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D35">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1316,25 +1316,25 @@
         <v>0.035</v>
       </c>
       <c r="B36">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C36">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D36">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1342,25 +1342,25 @@
         <v>0.036</v>
       </c>
       <c r="B37">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C37">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D37">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1368,25 +1368,25 @@
         <v>0.037</v>
       </c>
       <c r="B38">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C38">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D38">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1394,25 +1394,25 @@
         <v>0.038</v>
       </c>
       <c r="B39">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C39">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D39">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1420,25 +1420,25 @@
         <v>0.039</v>
       </c>
       <c r="B40">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C40">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D40">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1446,25 +1446,25 @@
         <v>0.04</v>
       </c>
       <c r="B41">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C41">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D41">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1472,25 +1472,25 @@
         <v>0.041</v>
       </c>
       <c r="B42">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C42">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D42">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1498,25 +1498,25 @@
         <v>0.042</v>
       </c>
       <c r="B43">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C43">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D43">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1524,25 +1524,25 @@
         <v>0.043</v>
       </c>
       <c r="B44">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C44">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D44">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1550,25 +1550,25 @@
         <v>0.044</v>
       </c>
       <c r="B45">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C45">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D45">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1576,25 +1576,25 @@
         <v>0.045</v>
       </c>
       <c r="B46">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C46">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D46">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1602,25 +1602,25 @@
         <v>0.046</v>
       </c>
       <c r="B47">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C47">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D47">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1628,25 +1628,25 @@
         <v>0.047</v>
       </c>
       <c r="B48">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C48">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D48">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1654,25 +1654,25 @@
         <v>0.048</v>
       </c>
       <c r="B49">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C49">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D49">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1680,25 +1680,25 @@
         <v>0.049</v>
       </c>
       <c r="B50">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C50">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D50">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1706,25 +1706,25 @@
         <v>0.05</v>
       </c>
       <c r="B51">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C51">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D51">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1732,25 +1732,25 @@
         <v>0.051</v>
       </c>
       <c r="B52">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C52">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D52">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1758,25 +1758,25 @@
         <v>0.052</v>
       </c>
       <c r="B53">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C53">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D53">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1784,25 +1784,25 @@
         <v>0.053</v>
       </c>
       <c r="B54">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C54">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D54">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1810,25 +1810,25 @@
         <v>0.054</v>
       </c>
       <c r="B55">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C55">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D55">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1836,25 +1836,25 @@
         <v>0.055</v>
       </c>
       <c r="B56">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C56">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D56">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1862,25 +1862,25 @@
         <v>0.056</v>
       </c>
       <c r="B57">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C57">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D57">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1888,25 +1888,25 @@
         <v>0.057</v>
       </c>
       <c r="B58">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C58">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D58">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1914,25 +1914,25 @@
         <v>0.058</v>
       </c>
       <c r="B59">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C59">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D59">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1940,25 +1940,25 @@
         <v>0.059</v>
       </c>
       <c r="B60">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C60">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D60">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1966,25 +1966,25 @@
         <v>0.06</v>
       </c>
       <c r="B61">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C61">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D61">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1992,25 +1992,25 @@
         <v>0.061</v>
       </c>
       <c r="B62">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C62">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D62">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2018,25 +2018,25 @@
         <v>0.062</v>
       </c>
       <c r="B63">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C63">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D63">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2044,25 +2044,25 @@
         <v>0.063</v>
       </c>
       <c r="B64">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C64">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D64">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2070,25 +2070,25 @@
         <v>0.064</v>
       </c>
       <c r="B65">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C65">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D65">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2096,25 +2096,25 @@
         <v>0.065</v>
       </c>
       <c r="B66">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C66">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D66">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2122,25 +2122,25 @@
         <v>0.066</v>
       </c>
       <c r="B67">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C67">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D67">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E67">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2148,25 +2148,25 @@
         <v>0.067</v>
       </c>
       <c r="B68">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C68">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D68">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E68">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2174,25 +2174,25 @@
         <v>0.068</v>
       </c>
       <c r="B69">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C69">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D69">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E69">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2200,25 +2200,25 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="B70">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C70">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D70">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E70">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2226,25 +2226,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B71">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C71">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D71">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E71">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2252,25 +2252,25 @@
         <v>0.07100000000000001</v>
       </c>
       <c r="B72">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C72">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D72">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E72">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2278,25 +2278,25 @@
         <v>0.07200000000000001</v>
       </c>
       <c r="B73">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C73">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D73">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E73">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2304,25 +2304,25 @@
         <v>0.073</v>
       </c>
       <c r="B74">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C74">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D74">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E74">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2330,25 +2330,25 @@
         <v>0.074</v>
       </c>
       <c r="B75">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C75">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D75">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E75">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2356,25 +2356,25 @@
         <v>0.075</v>
       </c>
       <c r="B76">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C76">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D76">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E76">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2382,25 +2382,25 @@
         <v>0.076</v>
       </c>
       <c r="B77">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C77">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D77">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E77">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2408,25 +2408,25 @@
         <v>0.077</v>
       </c>
       <c r="B78">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C78">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D78">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E78">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2434,25 +2434,25 @@
         <v>0.078</v>
       </c>
       <c r="B79">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C79">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D79">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E79">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2460,25 +2460,25 @@
         <v>0.079</v>
       </c>
       <c r="B80">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C80">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D80">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E80">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2486,25 +2486,25 @@
         <v>0.08</v>
       </c>
       <c r="B81">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C81">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D81">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E81">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2512,25 +2512,25 @@
         <v>0.081</v>
       </c>
       <c r="B82">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C82">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D82">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E82">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2538,25 +2538,25 @@
         <v>0.082</v>
       </c>
       <c r="B83">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C83">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D83">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E83">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2564,25 +2564,25 @@
         <v>0.083</v>
       </c>
       <c r="B84">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C84">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D84">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E84">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2590,25 +2590,25 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B85">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C85">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D85">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E85">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2616,25 +2616,25 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="B86">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C86">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D86">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E86">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2642,25 +2642,25 @@
         <v>0.08600000000000001</v>
       </c>
       <c r="B87">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C87">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D87">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E87">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2668,25 +2668,25 @@
         <v>0.08700000000000001</v>
       </c>
       <c r="B88">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C88">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D88">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E88">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2694,25 +2694,25 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="B89">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C89">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D89">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E89">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2720,25 +2720,25 @@
         <v>0.089</v>
       </c>
       <c r="B90">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C90">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D90">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E90">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2746,25 +2746,25 @@
         <v>0.09</v>
       </c>
       <c r="B91">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C91">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D91">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E91">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2772,25 +2772,25 @@
         <v>0.091</v>
       </c>
       <c r="B92">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C92">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D92">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E92">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2798,25 +2798,25 @@
         <v>0.092</v>
       </c>
       <c r="B93">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C93">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D93">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E93">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2824,25 +2824,25 @@
         <v>0.093</v>
       </c>
       <c r="B94">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C94">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D94">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E94">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2850,25 +2850,25 @@
         <v>0.094</v>
       </c>
       <c r="B95">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C95">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D95">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E95">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2876,25 +2876,25 @@
         <v>0.095</v>
       </c>
       <c r="B96">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C96">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D96">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E96">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2902,25 +2902,25 @@
         <v>0.096</v>
       </c>
       <c r="B97">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C97">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D97">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E97">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2928,25 +2928,25 @@
         <v>0.097</v>
       </c>
       <c r="B98">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C98">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D98">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E98">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2954,25 +2954,25 @@
         <v>0.098</v>
       </c>
       <c r="B99">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C99">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D99">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E99">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2980,25 +2980,25 @@
         <v>0.099</v>
       </c>
       <c r="B100">
-        <v>0.3023255813953488</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="C100">
-        <v>0.4262295081967213</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D100">
-        <v>0.3537414965986394</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="E100">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/edcr/Results.xlsx
+++ b/analysis/edcr/Results.xlsx
@@ -432,13 +432,13 @@
         <v>0.001</v>
       </c>
       <c r="B2">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C2">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D2">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -458,13 +458,13 @@
         <v>0.002</v>
       </c>
       <c r="B3">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C3">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D3">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -484,13 +484,13 @@
         <v>0.003</v>
       </c>
       <c r="B4">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C4">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D4">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -510,13 +510,13 @@
         <v>0.004</v>
       </c>
       <c r="B5">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C5">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D5">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>0.005</v>
       </c>
       <c r="B6">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C6">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D6">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -562,13 +562,13 @@
         <v>0.006</v>
       </c>
       <c r="B7">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C7">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D7">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0.007</v>
       </c>
       <c r="B8">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C8">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D8">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -614,13 +614,13 @@
         <v>0.008</v>
       </c>
       <c r="B9">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C9">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D9">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>0.009000000000000001</v>
       </c>
       <c r="B10">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C10">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D10">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -666,13 +666,13 @@
         <v>0.01</v>
       </c>
       <c r="B11">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C11">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D11">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -692,13 +692,13 @@
         <v>0.011</v>
       </c>
       <c r="B12">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C12">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D12">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0.012</v>
       </c>
       <c r="B13">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C13">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D13">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -744,13 +744,13 @@
         <v>0.013</v>
       </c>
       <c r="B14">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C14">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D14">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -770,13 +770,13 @@
         <v>0.014</v>
       </c>
       <c r="B15">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C15">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D15">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -796,13 +796,13 @@
         <v>0.015</v>
       </c>
       <c r="B16">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C16">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D16">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -822,13 +822,13 @@
         <v>0.016</v>
       </c>
       <c r="B17">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C17">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D17">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -848,13 +848,13 @@
         <v>0.017</v>
       </c>
       <c r="B18">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C18">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D18">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0.018</v>
       </c>
       <c r="B19">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C19">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D19">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -900,13 +900,13 @@
         <v>0.019</v>
       </c>
       <c r="B20">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C20">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D20">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -926,13 +926,13 @@
         <v>0.02</v>
       </c>
       <c r="B21">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C21">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D21">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0.021</v>
       </c>
       <c r="B22">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C22">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D22">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -978,13 +978,13 @@
         <v>0.022</v>
       </c>
       <c r="B23">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C23">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D23">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1004,13 +1004,13 @@
         <v>0.023</v>
       </c>
       <c r="B24">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C24">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D24">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1030,13 +1030,13 @@
         <v>0.024</v>
       </c>
       <c r="B25">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C25">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D25">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0.025</v>
       </c>
       <c r="B26">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C26">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D26">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0.026</v>
       </c>
       <c r="B27">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C27">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D27">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0.027</v>
       </c>
       <c r="B28">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C28">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D28">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>0.028</v>
       </c>
       <c r="B29">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C29">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D29">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1160,13 +1160,13 @@
         <v>0.029</v>
       </c>
       <c r="B30">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C30">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D30">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0.03</v>
       </c>
       <c r="B31">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C31">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D31">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1212,13 +1212,13 @@
         <v>0.031</v>
       </c>
       <c r="B32">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C32">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D32">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1238,13 +1238,13 @@
         <v>0.032</v>
       </c>
       <c r="B33">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C33">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D33">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1264,13 +1264,13 @@
         <v>0.033</v>
       </c>
       <c r="B34">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C34">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D34">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         <v>0.034</v>
       </c>
       <c r="B35">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C35">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D35">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1316,13 +1316,13 @@
         <v>0.035</v>
       </c>
       <c r="B36">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C36">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D36">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0.036</v>
       </c>
       <c r="B37">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C37">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D37">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1368,13 +1368,13 @@
         <v>0.037</v>
       </c>
       <c r="B38">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C38">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D38">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0.038</v>
       </c>
       <c r="B39">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C39">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D39">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0.039</v>
       </c>
       <c r="B40">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C40">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D40">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1446,13 +1446,13 @@
         <v>0.04</v>
       </c>
       <c r="B41">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C41">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D41">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1472,13 +1472,13 @@
         <v>0.041</v>
       </c>
       <c r="B42">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C42">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D42">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1498,13 +1498,13 @@
         <v>0.042</v>
       </c>
       <c r="B43">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C43">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D43">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1524,13 +1524,13 @@
         <v>0.043</v>
       </c>
       <c r="B44">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C44">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D44">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>0.044</v>
       </c>
       <c r="B45">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C45">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D45">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0.045</v>
       </c>
       <c r="B46">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C46">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D46">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1602,13 +1602,13 @@
         <v>0.046</v>
       </c>
       <c r="B47">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C47">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D47">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1628,13 +1628,13 @@
         <v>0.047</v>
       </c>
       <c r="B48">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C48">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D48">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0.048</v>
       </c>
       <c r="B49">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C49">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D49">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1680,13 +1680,13 @@
         <v>0.049</v>
       </c>
       <c r="B50">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C50">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D50">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1706,13 +1706,13 @@
         <v>0.05</v>
       </c>
       <c r="B51">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C51">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D51">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1732,13 +1732,13 @@
         <v>0.051</v>
       </c>
       <c r="B52">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C52">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D52">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1758,13 +1758,13 @@
         <v>0.052</v>
       </c>
       <c r="B53">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C53">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D53">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1784,13 +1784,13 @@
         <v>0.053</v>
       </c>
       <c r="B54">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C54">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D54">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0.054</v>
       </c>
       <c r="B55">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C55">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D55">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1836,13 +1836,13 @@
         <v>0.055</v>
       </c>
       <c r="B56">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C56">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D56">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1862,13 +1862,13 @@
         <v>0.056</v>
       </c>
       <c r="B57">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C57">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D57">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1888,13 +1888,13 @@
         <v>0.057</v>
       </c>
       <c r="B58">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C58">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D58">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>0.058</v>
       </c>
       <c r="B59">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C59">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D59">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1940,13 +1940,13 @@
         <v>0.059</v>
       </c>
       <c r="B60">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C60">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D60">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1966,13 +1966,13 @@
         <v>0.06</v>
       </c>
       <c r="B61">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C61">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D61">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1992,13 +1992,13 @@
         <v>0.061</v>
       </c>
       <c r="B62">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C62">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D62">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2018,13 +2018,13 @@
         <v>0.062</v>
       </c>
       <c r="B63">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C63">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D63">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2044,13 +2044,13 @@
         <v>0.063</v>
       </c>
       <c r="B64">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C64">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D64">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2070,13 +2070,13 @@
         <v>0.064</v>
       </c>
       <c r="B65">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C65">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D65">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2096,13 +2096,13 @@
         <v>0.065</v>
       </c>
       <c r="B66">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C66">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D66">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2122,13 +2122,13 @@
         <v>0.066</v>
       </c>
       <c r="B67">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C67">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D67">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2148,13 +2148,13 @@
         <v>0.067</v>
       </c>
       <c r="B68">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C68">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D68">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>0.068</v>
       </c>
       <c r="B69">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C69">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D69">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2200,13 +2200,13 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="B70">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C70">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D70">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2226,13 +2226,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B71">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C71">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D71">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2252,13 +2252,13 @@
         <v>0.07100000000000001</v>
       </c>
       <c r="B72">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C72">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D72">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2278,13 +2278,13 @@
         <v>0.07200000000000001</v>
       </c>
       <c r="B73">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C73">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D73">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2304,13 +2304,13 @@
         <v>0.073</v>
       </c>
       <c r="B74">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C74">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D74">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2330,13 +2330,13 @@
         <v>0.074</v>
       </c>
       <c r="B75">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C75">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D75">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2356,13 +2356,13 @@
         <v>0.075</v>
       </c>
       <c r="B76">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C76">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D76">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2382,13 +2382,13 @@
         <v>0.076</v>
       </c>
       <c r="B77">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C77">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D77">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2408,13 +2408,13 @@
         <v>0.077</v>
       </c>
       <c r="B78">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C78">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D78">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2434,13 +2434,13 @@
         <v>0.078</v>
       </c>
       <c r="B79">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C79">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D79">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2460,13 +2460,13 @@
         <v>0.079</v>
       </c>
       <c r="B80">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C80">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D80">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2486,13 +2486,13 @@
         <v>0.08</v>
       </c>
       <c r="B81">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C81">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D81">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2512,13 +2512,13 @@
         <v>0.081</v>
       </c>
       <c r="B82">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C82">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D82">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0.082</v>
       </c>
       <c r="B83">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C83">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D83">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2564,13 +2564,13 @@
         <v>0.083</v>
       </c>
       <c r="B84">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C84">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D84">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2590,13 +2590,13 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B85">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C85">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D85">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2616,13 +2616,13 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="B86">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C86">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D86">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2642,13 +2642,13 @@
         <v>0.08600000000000001</v>
       </c>
       <c r="B87">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C87">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D87">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2668,13 +2668,13 @@
         <v>0.08700000000000001</v>
       </c>
       <c r="B88">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C88">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D88">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="B89">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C89">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D89">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2720,13 +2720,13 @@
         <v>0.089</v>
       </c>
       <c r="B90">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C90">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D90">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -2746,13 +2746,13 @@
         <v>0.09</v>
       </c>
       <c r="B91">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C91">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D91">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>0.091</v>
       </c>
       <c r="B92">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C92">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D92">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -2798,13 +2798,13 @@
         <v>0.092</v>
       </c>
       <c r="B93">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C93">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D93">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -2824,13 +2824,13 @@
         <v>0.093</v>
       </c>
       <c r="B94">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C94">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D94">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -2850,13 +2850,13 @@
         <v>0.094</v>
       </c>
       <c r="B95">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C95">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D95">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2876,13 +2876,13 @@
         <v>0.095</v>
       </c>
       <c r="B96">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C96">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D96">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2902,13 +2902,13 @@
         <v>0.096</v>
       </c>
       <c r="B97">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C97">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D97">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -2928,13 +2928,13 @@
         <v>0.097</v>
       </c>
       <c r="B98">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C98">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D98">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -2954,13 +2954,13 @@
         <v>0.098</v>
       </c>
       <c r="B99">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C99">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D99">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -2980,13 +2980,13 @@
         <v>0.099</v>
       </c>
       <c r="B100">
-        <v>0.1146245059288538</v>
+        <v>0.625</v>
       </c>
       <c r="C100">
-        <v>0.6444444444444445</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="D100">
-        <v>0.1946308724832215</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="E100">
         <v>0</v>

--- a/analysis/edcr/Results.xlsx
+++ b/analysis/edcr/Results.xlsx
@@ -432,25 +432,25 @@
         <v>0.001</v>
       </c>
       <c r="B2">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C2">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D2">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,25 +458,25 @@
         <v>0.002</v>
       </c>
       <c r="B3">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C3">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D3">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -484,25 +484,25 @@
         <v>0.003</v>
       </c>
       <c r="B4">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C4">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D4">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -510,25 +510,25 @@
         <v>0.004</v>
       </c>
       <c r="B5">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C5">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D5">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -536,25 +536,25 @@
         <v>0.005</v>
       </c>
       <c r="B6">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C6">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D6">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -562,25 +562,25 @@
         <v>0.006</v>
       </c>
       <c r="B7">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C7">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D7">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -588,25 +588,25 @@
         <v>0.007</v>
       </c>
       <c r="B8">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C8">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D8">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -614,25 +614,25 @@
         <v>0.008</v>
       </c>
       <c r="B9">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C9">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D9">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -640,25 +640,25 @@
         <v>0.009000000000000001</v>
       </c>
       <c r="B10">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C10">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D10">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -666,25 +666,25 @@
         <v>0.01</v>
       </c>
       <c r="B11">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C11">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D11">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -692,25 +692,25 @@
         <v>0.011</v>
       </c>
       <c r="B12">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C12">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D12">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -718,25 +718,25 @@
         <v>0.012</v>
       </c>
       <c r="B13">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C13">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D13">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -744,25 +744,25 @@
         <v>0.013</v>
       </c>
       <c r="B14">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C14">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D14">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -770,25 +770,25 @@
         <v>0.014</v>
       </c>
       <c r="B15">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C15">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D15">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -796,25 +796,25 @@
         <v>0.015</v>
       </c>
       <c r="B16">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C16">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D16">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -822,25 +822,25 @@
         <v>0.016</v>
       </c>
       <c r="B17">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C17">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D17">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -848,25 +848,25 @@
         <v>0.017</v>
       </c>
       <c r="B18">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C18">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D18">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -874,25 +874,25 @@
         <v>0.018</v>
       </c>
       <c r="B19">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C19">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D19">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -900,25 +900,25 @@
         <v>0.019</v>
       </c>
       <c r="B20">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C20">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D20">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -926,25 +926,25 @@
         <v>0.02</v>
       </c>
       <c r="B21">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C21">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D21">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -952,25 +952,25 @@
         <v>0.021</v>
       </c>
       <c r="B22">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C22">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D22">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -978,25 +978,25 @@
         <v>0.022</v>
       </c>
       <c r="B23">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C23">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D23">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1004,25 +1004,25 @@
         <v>0.023</v>
       </c>
       <c r="B24">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C24">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D24">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1030,25 +1030,25 @@
         <v>0.024</v>
       </c>
       <c r="B25">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C25">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D25">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1056,25 +1056,25 @@
         <v>0.025</v>
       </c>
       <c r="B26">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C26">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D26">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1082,25 +1082,25 @@
         <v>0.026</v>
       </c>
       <c r="B27">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C27">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D27">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1108,25 +1108,25 @@
         <v>0.027</v>
       </c>
       <c r="B28">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C28">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D28">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1134,25 +1134,25 @@
         <v>0.028</v>
       </c>
       <c r="B29">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C29">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D29">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1160,25 +1160,25 @@
         <v>0.029</v>
       </c>
       <c r="B30">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C30">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D30">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1186,25 +1186,25 @@
         <v>0.03</v>
       </c>
       <c r="B31">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C31">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D31">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1212,25 +1212,25 @@
         <v>0.031</v>
       </c>
       <c r="B32">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C32">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D32">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1238,25 +1238,25 @@
         <v>0.032</v>
       </c>
       <c r="B33">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C33">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D33">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1264,25 +1264,25 @@
         <v>0.033</v>
       </c>
       <c r="B34">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C34">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D34">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1290,25 +1290,25 @@
         <v>0.034</v>
       </c>
       <c r="B35">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C35">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D35">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1316,25 +1316,25 @@
         <v>0.035</v>
       </c>
       <c r="B36">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C36">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D36">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1342,25 +1342,25 @@
         <v>0.036</v>
       </c>
       <c r="B37">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C37">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D37">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1368,25 +1368,25 @@
         <v>0.037</v>
       </c>
       <c r="B38">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C38">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D38">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1394,25 +1394,25 @@
         <v>0.038</v>
       </c>
       <c r="B39">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C39">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D39">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1420,25 +1420,25 @@
         <v>0.039</v>
       </c>
       <c r="B40">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C40">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D40">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1446,25 +1446,25 @@
         <v>0.04</v>
       </c>
       <c r="B41">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C41">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D41">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1472,25 +1472,25 @@
         <v>0.041</v>
       </c>
       <c r="B42">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C42">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D42">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1498,25 +1498,25 @@
         <v>0.042</v>
       </c>
       <c r="B43">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C43">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D43">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1524,25 +1524,25 @@
         <v>0.043</v>
       </c>
       <c r="B44">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C44">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D44">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1550,25 +1550,25 @@
         <v>0.044</v>
       </c>
       <c r="B45">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C45">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D45">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1576,25 +1576,25 @@
         <v>0.045</v>
       </c>
       <c r="B46">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C46">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D46">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1602,25 +1602,25 @@
         <v>0.046</v>
       </c>
       <c r="B47">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C47">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D47">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1628,25 +1628,25 @@
         <v>0.047</v>
       </c>
       <c r="B48">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C48">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D48">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1654,25 +1654,25 @@
         <v>0.048</v>
       </c>
       <c r="B49">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C49">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D49">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1680,25 +1680,25 @@
         <v>0.049</v>
       </c>
       <c r="B50">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C50">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D50">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1706,25 +1706,25 @@
         <v>0.05</v>
       </c>
       <c r="B51">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C51">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D51">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1732,25 +1732,25 @@
         <v>0.051</v>
       </c>
       <c r="B52">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C52">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D52">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1758,25 +1758,25 @@
         <v>0.052</v>
       </c>
       <c r="B53">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C53">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D53">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1784,25 +1784,25 @@
         <v>0.053</v>
       </c>
       <c r="B54">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C54">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D54">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1810,25 +1810,25 @@
         <v>0.054</v>
       </c>
       <c r="B55">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C55">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D55">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1836,25 +1836,25 @@
         <v>0.055</v>
       </c>
       <c r="B56">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C56">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D56">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1862,25 +1862,25 @@
         <v>0.056</v>
       </c>
       <c r="B57">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C57">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D57">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1888,25 +1888,25 @@
         <v>0.057</v>
       </c>
       <c r="B58">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C58">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D58">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1914,25 +1914,25 @@
         <v>0.058</v>
       </c>
       <c r="B59">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C59">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D59">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1940,25 +1940,25 @@
         <v>0.059</v>
       </c>
       <c r="B60">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C60">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D60">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1966,25 +1966,25 @@
         <v>0.06</v>
       </c>
       <c r="B61">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C61">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D61">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1992,25 +1992,25 @@
         <v>0.061</v>
       </c>
       <c r="B62">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C62">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D62">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2018,25 +2018,25 @@
         <v>0.062</v>
       </c>
       <c r="B63">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C63">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D63">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2044,25 +2044,25 @@
         <v>0.063</v>
       </c>
       <c r="B64">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C64">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D64">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2070,25 +2070,25 @@
         <v>0.064</v>
       </c>
       <c r="B65">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C65">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D65">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2096,25 +2096,25 @@
         <v>0.065</v>
       </c>
       <c r="B66">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C66">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D66">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2122,25 +2122,25 @@
         <v>0.066</v>
       </c>
       <c r="B67">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C67">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D67">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2148,25 +2148,25 @@
         <v>0.067</v>
       </c>
       <c r="B68">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C68">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D68">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2174,25 +2174,25 @@
         <v>0.068</v>
       </c>
       <c r="B69">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C69">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D69">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2200,25 +2200,25 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="B70">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C70">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D70">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2226,25 +2226,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B71">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C71">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D71">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2252,25 +2252,25 @@
         <v>0.07100000000000001</v>
       </c>
       <c r="B72">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C72">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D72">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2278,25 +2278,25 @@
         <v>0.07200000000000001</v>
       </c>
       <c r="B73">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C73">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D73">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2304,25 +2304,25 @@
         <v>0.073</v>
       </c>
       <c r="B74">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C74">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D74">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2330,25 +2330,25 @@
         <v>0.074</v>
       </c>
       <c r="B75">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C75">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D75">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2356,25 +2356,25 @@
         <v>0.075</v>
       </c>
       <c r="B76">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C76">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D76">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2382,25 +2382,25 @@
         <v>0.076</v>
       </c>
       <c r="B77">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C77">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D77">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2408,25 +2408,25 @@
         <v>0.077</v>
       </c>
       <c r="B78">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C78">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D78">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2434,25 +2434,25 @@
         <v>0.078</v>
       </c>
       <c r="B79">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C79">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D79">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2460,25 +2460,25 @@
         <v>0.079</v>
       </c>
       <c r="B80">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C80">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D80">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2486,25 +2486,25 @@
         <v>0.08</v>
       </c>
       <c r="B81">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C81">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D81">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2512,25 +2512,25 @@
         <v>0.081</v>
       </c>
       <c r="B82">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C82">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D82">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2538,25 +2538,25 @@
         <v>0.082</v>
       </c>
       <c r="B83">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C83">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D83">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2564,25 +2564,25 @@
         <v>0.083</v>
       </c>
       <c r="B84">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C84">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D84">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2590,25 +2590,25 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B85">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C85">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D85">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2616,25 +2616,25 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="B86">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C86">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D86">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2642,25 +2642,25 @@
         <v>0.08600000000000001</v>
       </c>
       <c r="B87">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C87">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D87">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2668,25 +2668,25 @@
         <v>0.08700000000000001</v>
       </c>
       <c r="B88">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C88">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D88">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2694,25 +2694,25 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="B89">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C89">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D89">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2720,25 +2720,25 @@
         <v>0.089</v>
       </c>
       <c r="B90">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C90">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D90">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2746,25 +2746,25 @@
         <v>0.09</v>
       </c>
       <c r="B91">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C91">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D91">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2772,25 +2772,25 @@
         <v>0.091</v>
       </c>
       <c r="B92">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C92">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D92">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2798,25 +2798,25 @@
         <v>0.092</v>
       </c>
       <c r="B93">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C93">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D93">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2824,25 +2824,25 @@
         <v>0.093</v>
       </c>
       <c r="B94">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C94">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D94">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2850,25 +2850,25 @@
         <v>0.094</v>
       </c>
       <c r="B95">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C95">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D95">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2876,25 +2876,25 @@
         <v>0.095</v>
       </c>
       <c r="B96">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C96">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D96">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2902,25 +2902,25 @@
         <v>0.096</v>
       </c>
       <c r="B97">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C97">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D97">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2928,25 +2928,25 @@
         <v>0.097</v>
       </c>
       <c r="B98">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C98">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D98">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2954,25 +2954,25 @@
         <v>0.098</v>
       </c>
       <c r="B99">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C99">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D99">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2980,25 +2980,25 @@
         <v>0.099</v>
       </c>
       <c r="B100">
-        <v>0.625</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="C100">
-        <v>0.08196721311475409</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="D100">
-        <v>0.144927536231884</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/edcr/Results.xlsx
+++ b/analysis/edcr/Results.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,2576 +429,7672 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="B2">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C2">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D2">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="B3">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C3">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D3">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>0.003</v>
+        <v>0.007</v>
       </c>
       <c r="B4">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C4">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D4">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="B5">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C5">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D5">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>0.005</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="B6">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C6">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D6">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>0.006</v>
+        <v>0.01</v>
       </c>
       <c r="B7">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C7">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D7">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>0.007</v>
+        <v>0.011</v>
       </c>
       <c r="B8">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C8">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D8">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
       <c r="B9">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C9">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D9">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>0.009000000000000001</v>
+        <v>0.013</v>
       </c>
       <c r="B10">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C10">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D10">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>0.01</v>
+        <v>0.014</v>
       </c>
       <c r="B11">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C11">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D11">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>0.011</v>
+        <v>0.015</v>
       </c>
       <c r="B12">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C12">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D12">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>0.012</v>
+        <v>0.016</v>
       </c>
       <c r="B13">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C13">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D13">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>0.013</v>
+        <v>0.017</v>
       </c>
       <c r="B14">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C14">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D14">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>0.014</v>
+        <v>0.018</v>
       </c>
       <c r="B15">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C15">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D15">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>0.015</v>
+        <v>0.019</v>
       </c>
       <c r="B16">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C16">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D16">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
       <c r="B17">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C17">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D17">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>0.017</v>
+        <v>0.021</v>
       </c>
       <c r="B18">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C18">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D18">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>0.018</v>
+        <v>0.022</v>
       </c>
       <c r="B19">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C19">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D19">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>0.019</v>
+        <v>0.023</v>
       </c>
       <c r="B20">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C20">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D20">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>0.02</v>
+        <v>0.024</v>
       </c>
       <c r="B21">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C21">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D21">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G21">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>0.021</v>
+        <v>0.025</v>
       </c>
       <c r="B22">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C22">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D22">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>0.022</v>
+        <v>0.026</v>
       </c>
       <c r="B23">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C23">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D23">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>0.023</v>
+        <v>0.027</v>
       </c>
       <c r="B24">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C24">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D24">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G24">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>0.024</v>
+        <v>0.028</v>
       </c>
       <c r="B25">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C25">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D25">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G25">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>0.025</v>
+        <v>0.029</v>
       </c>
       <c r="B26">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C26">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D26">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G26">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>0.026</v>
+        <v>0.03</v>
       </c>
       <c r="B27">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C27">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D27">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>0.027</v>
+        <v>0.031</v>
       </c>
       <c r="B28">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C28">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D28">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G28">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>0.028</v>
+        <v>0.032</v>
       </c>
       <c r="B29">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C29">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D29">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>0.029</v>
+        <v>0.033</v>
       </c>
       <c r="B30">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C30">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D30">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>0.03</v>
+        <v>0.034</v>
       </c>
       <c r="B31">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C31">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D31">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G31">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>0.031</v>
+        <v>0.035</v>
       </c>
       <c r="B32">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C32">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D32">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G32">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>0.032</v>
+        <v>0.036</v>
       </c>
       <c r="B33">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C33">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D33">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G33">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>0.033</v>
+        <v>0.037</v>
       </c>
       <c r="B34">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C34">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D34">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G34">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>0.034</v>
+        <v>0.038</v>
       </c>
       <c r="B35">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C35">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D35">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>0.035</v>
+        <v>0.039</v>
       </c>
       <c r="B36">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C36">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D36">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G36">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>0.036</v>
+        <v>0.04</v>
       </c>
       <c r="B37">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C37">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D37">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>0.037</v>
+        <v>0.041</v>
       </c>
       <c r="B38">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C38">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D38">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>0.038</v>
+        <v>0.042</v>
       </c>
       <c r="B39">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C39">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D39">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G39">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>0.039</v>
+        <v>0.043</v>
       </c>
       <c r="B40">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C40">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D40">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G40">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>0.04</v>
+        <v>0.044</v>
       </c>
       <c r="B41">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C41">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D41">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G41">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>0.041</v>
+        <v>0.045</v>
       </c>
       <c r="B42">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C42">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D42">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G42">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <v>0.042</v>
+        <v>0.046</v>
       </c>
       <c r="B43">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C43">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D43">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G43">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <v>0.043</v>
+        <v>0.047</v>
       </c>
       <c r="B44">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C44">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D44">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G44">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <v>0.044</v>
+        <v>0.048</v>
       </c>
       <c r="B45">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C45">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D45">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G45">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>0.045</v>
+        <v>0.049</v>
       </c>
       <c r="B46">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C46">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D46">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G46">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>0.046</v>
+        <v>0.05</v>
       </c>
       <c r="B47">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C47">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D47">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G47">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>0.047</v>
+        <v>0.051</v>
       </c>
       <c r="B48">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C48">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D48">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G48">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>0.048</v>
+        <v>0.052</v>
       </c>
       <c r="B49">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C49">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D49">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G49">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>0.049</v>
+        <v>0.053</v>
       </c>
       <c r="B50">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C50">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D50">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G50">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>0.05</v>
+        <v>0.054</v>
       </c>
       <c r="B51">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C51">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D51">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G51">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>0.051</v>
+        <v>0.055</v>
       </c>
       <c r="B52">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C52">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D52">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G52">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
-        <v>0.052</v>
+        <v>0.056</v>
       </c>
       <c r="B53">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C53">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D53">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G53">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <v>0.053</v>
+        <v>0.057</v>
       </c>
       <c r="B54">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C54">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D54">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G54">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>0.054</v>
+        <v>0.058</v>
       </c>
       <c r="B55">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C55">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D55">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G55">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
-        <v>0.055</v>
+        <v>0.059</v>
       </c>
       <c r="B56">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C56">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D56">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57">
-        <v>0.056</v>
+        <v>0.06</v>
       </c>
       <c r="B57">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C57">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D57">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G57">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>0.057</v>
+        <v>0.061</v>
       </c>
       <c r="B58">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C58">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D58">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G58">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>0.058</v>
+        <v>0.062</v>
       </c>
       <c r="B59">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C59">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D59">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G59">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <v>0.059</v>
+        <v>0.063</v>
       </c>
       <c r="B60">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C60">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D60">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G60">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>0.06</v>
+        <v>0.064</v>
       </c>
       <c r="B61">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C61">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D61">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G61">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62">
-        <v>0.061</v>
+        <v>0.065</v>
       </c>
       <c r="B62">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C62">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D62">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G62">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63">
-        <v>0.062</v>
+        <v>0.066</v>
       </c>
       <c r="B63">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C63">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D63">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G63">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64">
-        <v>0.063</v>
+        <v>0.067</v>
       </c>
       <c r="B64">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C64">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D64">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G64">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65">
-        <v>0.064</v>
+        <v>0.068</v>
       </c>
       <c r="B65">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C65">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D65">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G65">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66">
-        <v>0.065</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="B66">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C66">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D66">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G66">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <v>0.066</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B67">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C67">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D67">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G67">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68">
-        <v>0.067</v>
+        <v>0.07100000000000001</v>
       </c>
       <c r="B68">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C68">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D68">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G68">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69">
-        <v>0.068</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="B69">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C69">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D69">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G69">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70">
-        <v>0.06900000000000001</v>
+        <v>0.073</v>
       </c>
       <c r="B70">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C70">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D70">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G70">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71">
-        <v>0.07000000000000001</v>
+        <v>0.074</v>
       </c>
       <c r="B71">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C71">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D71">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G71">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72">
-        <v>0.07100000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="B72">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C72">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D72">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G72">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73">
-        <v>0.07200000000000001</v>
+        <v>0.076</v>
       </c>
       <c r="B73">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C73">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D73">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G73">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74">
-        <v>0.073</v>
+        <v>0.077</v>
       </c>
       <c r="B74">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C74">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D74">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G74">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75">
-        <v>0.074</v>
+        <v>0.078</v>
       </c>
       <c r="B75">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C75">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D75">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G75">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76">
-        <v>0.075</v>
+        <v>0.079</v>
       </c>
       <c r="B76">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C76">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D76">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G76">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77">
-        <v>0.076</v>
+        <v>0.08</v>
       </c>
       <c r="B77">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C77">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D77">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G77">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78">
-        <v>0.077</v>
+        <v>0.081</v>
       </c>
       <c r="B78">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C78">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D78">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G78">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79">
-        <v>0.078</v>
+        <v>0.082</v>
       </c>
       <c r="B79">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C79">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D79">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G79">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80">
-        <v>0.079</v>
+        <v>0.083</v>
       </c>
       <c r="B80">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C80">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D80">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G80">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81">
-        <v>0.08</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="B81">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C81">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D81">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G81">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82">
-        <v>0.081</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="B82">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C82">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D82">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G82">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83">
-        <v>0.082</v>
+        <v>0.08600000000000001</v>
       </c>
       <c r="B83">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C83">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D83">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G83">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84">
-        <v>0.083</v>
+        <v>0.08700000000000001</v>
       </c>
       <c r="B84">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C84">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D84">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G84">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85">
-        <v>0.08400000000000001</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="B85">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C85">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D85">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G85">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86">
-        <v>0.08500000000000001</v>
+        <v>0.089</v>
       </c>
       <c r="B86">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C86">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D86">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G86">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87">
-        <v>0.08600000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="B87">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C87">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D87">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G87">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88">
-        <v>0.08700000000000001</v>
+        <v>0.091</v>
       </c>
       <c r="B88">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C88">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D88">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G88">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89">
-        <v>0.08799999999999999</v>
+        <v>0.092</v>
       </c>
       <c r="B89">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C89">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D89">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G89">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90">
-        <v>0.089</v>
+        <v>0.093</v>
       </c>
       <c r="B90">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C90">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D90">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G90">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91">
-        <v>0.09</v>
+        <v>0.094</v>
       </c>
       <c r="B91">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C91">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D91">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G91">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92">
-        <v>0.091</v>
+        <v>0.095</v>
       </c>
       <c r="B92">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C92">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D92">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G92">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93">
-        <v>0.092</v>
+        <v>0.096</v>
       </c>
       <c r="B93">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C93">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D93">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G93">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94">
-        <v>0.093</v>
+        <v>0.097</v>
       </c>
       <c r="B94">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C94">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D94">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G94">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95">
-        <v>0.094</v>
+        <v>0.098</v>
       </c>
       <c r="B95">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C95">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D95">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G95">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96">
-        <v>0.095</v>
+        <v>0.099</v>
       </c>
       <c r="B96">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C96">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D96">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G96">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97">
-        <v>0.096</v>
+        <v>0.1</v>
       </c>
       <c r="B97">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C97">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D97">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G97">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98">
-        <v>0.097</v>
+        <v>0.101</v>
       </c>
       <c r="B98">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C98">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D98">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G98">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99">
-        <v>0.098</v>
+        <v>0.102</v>
       </c>
       <c r="B99">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C99">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D99">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G99">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100">
-        <v>0.099</v>
+        <v>0.103</v>
       </c>
       <c r="B100">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C100">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D100">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G100">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>12</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101">
+        <v>0.104</v>
+      </c>
+      <c r="B101">
+        <v>0.37</v>
+      </c>
+      <c r="C101">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D101">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>28</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102">
+        <v>0.105</v>
+      </c>
+      <c r="B102">
+        <v>0.37</v>
+      </c>
+      <c r="C102">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D102">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>28</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103">
+        <v>0.106</v>
+      </c>
+      <c r="B103">
+        <v>0.37</v>
+      </c>
+      <c r="C103">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D103">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>28</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104">
+        <v>0.107</v>
+      </c>
+      <c r="B104">
+        <v>0.37</v>
+      </c>
+      <c r="C104">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D104">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>28</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105">
+        <v>0.108</v>
+      </c>
+      <c r="B105">
+        <v>0.37</v>
+      </c>
+      <c r="C105">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D105">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>28</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106">
+        <v>0.109</v>
+      </c>
+      <c r="B106">
+        <v>0.37</v>
+      </c>
+      <c r="C106">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D106">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>28</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107">
+        <v>0.11</v>
+      </c>
+      <c r="B107">
+        <v>0.37</v>
+      </c>
+      <c r="C107">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D107">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>28</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108">
+        <v>0.111</v>
+      </c>
+      <c r="B108">
+        <v>0.37</v>
+      </c>
+      <c r="C108">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D108">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>28</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109">
+        <v>0.112</v>
+      </c>
+      <c r="B109">
+        <v>0.37</v>
+      </c>
+      <c r="C109">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D109">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>28</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110">
+        <v>0.113</v>
+      </c>
+      <c r="B110">
+        <v>0.37</v>
+      </c>
+      <c r="C110">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D110">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>28</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111">
+        <v>0.114</v>
+      </c>
+      <c r="B111">
+        <v>0.37</v>
+      </c>
+      <c r="C111">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D111">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>28</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112">
+        <v>0.115</v>
+      </c>
+      <c r="B112">
+        <v>0.37</v>
+      </c>
+      <c r="C112">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D112">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>28</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113">
+        <v>0.116</v>
+      </c>
+      <c r="B113">
+        <v>0.37</v>
+      </c>
+      <c r="C113">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D113">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>28</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114">
+        <v>0.117</v>
+      </c>
+      <c r="B114">
+        <v>0.37</v>
+      </c>
+      <c r="C114">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D114">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>28</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115">
+        <v>0.118</v>
+      </c>
+      <c r="B115">
+        <v>0.37</v>
+      </c>
+      <c r="C115">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D115">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>28</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116">
+        <v>0.119</v>
+      </c>
+      <c r="B116">
+        <v>0.37</v>
+      </c>
+      <c r="C116">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D116">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>28</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117">
+        <v>0.12</v>
+      </c>
+      <c r="B117">
+        <v>0.37</v>
+      </c>
+      <c r="C117">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D117">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>28</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118">
+        <v>0.121</v>
+      </c>
+      <c r="B118">
+        <v>0.37</v>
+      </c>
+      <c r="C118">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D118">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>28</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119">
+        <v>0.122</v>
+      </c>
+      <c r="B119">
+        <v>0.37</v>
+      </c>
+      <c r="C119">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D119">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>28</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120">
+        <v>0.123</v>
+      </c>
+      <c r="B120">
+        <v>0.37</v>
+      </c>
+      <c r="C120">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D120">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>28</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121">
+        <v>0.124</v>
+      </c>
+      <c r="B121">
+        <v>0.37</v>
+      </c>
+      <c r="C121">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D121">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>28</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122">
+        <v>0.125</v>
+      </c>
+      <c r="B122">
+        <v>0.37</v>
+      </c>
+      <c r="C122">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D122">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>28</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123">
+        <v>0.126</v>
+      </c>
+      <c r="B123">
+        <v>0.37</v>
+      </c>
+      <c r="C123">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D123">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>28</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124">
+        <v>0.127</v>
+      </c>
+      <c r="B124">
+        <v>0.37</v>
+      </c>
+      <c r="C124">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D124">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>28</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125">
+        <v>0.128</v>
+      </c>
+      <c r="B125">
+        <v>0.37</v>
+      </c>
+      <c r="C125">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D125">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>28</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126">
+        <v>0.129</v>
+      </c>
+      <c r="B126">
+        <v>0.37</v>
+      </c>
+      <c r="C126">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D126">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>28</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127">
+        <v>0.13</v>
+      </c>
+      <c r="B127">
+        <v>0.37</v>
+      </c>
+      <c r="C127">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D127">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>28</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128">
+        <v>0.131</v>
+      </c>
+      <c r="B128">
+        <v>0.37</v>
+      </c>
+      <c r="C128">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D128">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>28</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129">
+        <v>0.132</v>
+      </c>
+      <c r="B129">
+        <v>0.37</v>
+      </c>
+      <c r="C129">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D129">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>28</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130">
+        <v>0.133</v>
+      </c>
+      <c r="B130">
+        <v>0.37</v>
+      </c>
+      <c r="C130">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D130">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>28</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131">
+        <v>0.134</v>
+      </c>
+      <c r="B131">
+        <v>0.37</v>
+      </c>
+      <c r="C131">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D131">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>28</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132">
+        <v>0.135</v>
+      </c>
+      <c r="B132">
+        <v>0.37</v>
+      </c>
+      <c r="C132">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D132">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>28</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133">
+        <v>0.136</v>
+      </c>
+      <c r="B133">
+        <v>0.37</v>
+      </c>
+      <c r="C133">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D133">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>28</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134">
+        <v>0.137</v>
+      </c>
+      <c r="B134">
+        <v>0.37</v>
+      </c>
+      <c r="C134">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D134">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>28</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135">
+        <v>0.138</v>
+      </c>
+      <c r="B135">
+        <v>0.37</v>
+      </c>
+      <c r="C135">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D135">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>28</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136">
+        <v>0.139</v>
+      </c>
+      <c r="B136">
+        <v>0.37</v>
+      </c>
+      <c r="C136">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D136">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>28</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137">
+        <v>0.14</v>
+      </c>
+      <c r="B137">
+        <v>0.37</v>
+      </c>
+      <c r="C137">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D137">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>28</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138">
+        <v>0.141</v>
+      </c>
+      <c r="B138">
+        <v>0.37</v>
+      </c>
+      <c r="C138">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D138">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>28</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139">
+        <v>0.142</v>
+      </c>
+      <c r="B139">
+        <v>0.37</v>
+      </c>
+      <c r="C139">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D139">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>28</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140">
+        <v>0.143</v>
+      </c>
+      <c r="B140">
+        <v>0.37</v>
+      </c>
+      <c r="C140">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D140">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>28</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141">
+        <v>0.144</v>
+      </c>
+      <c r="B141">
+        <v>0.37</v>
+      </c>
+      <c r="C141">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D141">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>28</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142">
+        <v>0.145</v>
+      </c>
+      <c r="B142">
+        <v>0.37</v>
+      </c>
+      <c r="C142">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D142">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>28</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143">
+        <v>0.146</v>
+      </c>
+      <c r="B143">
+        <v>0.37</v>
+      </c>
+      <c r="C143">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D143">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>28</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144">
+        <v>0.147</v>
+      </c>
+      <c r="B144">
+        <v>0.37</v>
+      </c>
+      <c r="C144">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D144">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>28</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145">
+        <v>0.148</v>
+      </c>
+      <c r="B145">
+        <v>0.37</v>
+      </c>
+      <c r="C145">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D145">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>28</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146">
+        <v>0.149</v>
+      </c>
+      <c r="B146">
+        <v>0.37</v>
+      </c>
+      <c r="C146">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D146">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>28</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147">
+        <v>0.15</v>
+      </c>
+      <c r="B147">
+        <v>0.37</v>
+      </c>
+      <c r="C147">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D147">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>28</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148">
+        <v>0.151</v>
+      </c>
+      <c r="B148">
+        <v>0.37</v>
+      </c>
+      <c r="C148">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D148">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>28</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149">
+        <v>0.152</v>
+      </c>
+      <c r="B149">
+        <v>0.37</v>
+      </c>
+      <c r="C149">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D149">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>28</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150">
+        <v>0.153</v>
+      </c>
+      <c r="B150">
+        <v>0.37</v>
+      </c>
+      <c r="C150">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D150">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>28</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151">
+        <v>0.154</v>
+      </c>
+      <c r="B151">
+        <v>0.37</v>
+      </c>
+      <c r="C151">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D151">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>28</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152">
+        <v>0.155</v>
+      </c>
+      <c r="B152">
+        <v>0.37</v>
+      </c>
+      <c r="C152">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D152">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>28</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153">
+        <v>0.156</v>
+      </c>
+      <c r="B153">
+        <v>0.37</v>
+      </c>
+      <c r="C153">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D153">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>28</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154">
+        <v>0.157</v>
+      </c>
+      <c r="B154">
+        <v>0.37</v>
+      </c>
+      <c r="C154">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D154">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>28</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155">
+        <v>0.158</v>
+      </c>
+      <c r="B155">
+        <v>0.37</v>
+      </c>
+      <c r="C155">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D155">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>28</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156">
+        <v>0.159</v>
+      </c>
+      <c r="B156">
+        <v>0.37</v>
+      </c>
+      <c r="C156">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D156">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>28</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157">
+        <v>0.16</v>
+      </c>
+      <c r="B157">
+        <v>0.37</v>
+      </c>
+      <c r="C157">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D157">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>28</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158">
+        <v>0.161</v>
+      </c>
+      <c r="B158">
+        <v>0.37</v>
+      </c>
+      <c r="C158">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D158">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>28</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159">
+        <v>0.162</v>
+      </c>
+      <c r="B159">
+        <v>0.37</v>
+      </c>
+      <c r="C159">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D159">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>28</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160">
+        <v>0.163</v>
+      </c>
+      <c r="B160">
+        <v>0.37</v>
+      </c>
+      <c r="C160">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D160">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>28</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161">
+        <v>0.164</v>
+      </c>
+      <c r="B161">
+        <v>0.37</v>
+      </c>
+      <c r="C161">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D161">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>28</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162">
+        <v>0.165</v>
+      </c>
+      <c r="B162">
+        <v>0.37</v>
+      </c>
+      <c r="C162">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D162">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>28</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163">
+        <v>0.166</v>
+      </c>
+      <c r="B163">
+        <v>0.37</v>
+      </c>
+      <c r="C163">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D163">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>28</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164">
+        <v>0.167</v>
+      </c>
+      <c r="B164">
+        <v>0.37</v>
+      </c>
+      <c r="C164">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D164">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>28</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165">
+        <v>0.168</v>
+      </c>
+      <c r="B165">
+        <v>0.37</v>
+      </c>
+      <c r="C165">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D165">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>28</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166">
+        <v>0.169</v>
+      </c>
+      <c r="B166">
+        <v>0.37</v>
+      </c>
+      <c r="C166">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D166">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>28</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167">
+        <v>0.17</v>
+      </c>
+      <c r="B167">
+        <v>0.37</v>
+      </c>
+      <c r="C167">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D167">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>28</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168">
+        <v>0.171</v>
+      </c>
+      <c r="B168">
+        <v>0.37</v>
+      </c>
+      <c r="C168">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D168">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>28</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169">
+        <v>0.172</v>
+      </c>
+      <c r="B169">
+        <v>0.37</v>
+      </c>
+      <c r="C169">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D169">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>28</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170">
+        <v>0.173</v>
+      </c>
+      <c r="B170">
+        <v>0.37</v>
+      </c>
+      <c r="C170">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D170">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>28</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171">
+        <v>0.174</v>
+      </c>
+      <c r="B171">
+        <v>0.37</v>
+      </c>
+      <c r="C171">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D171">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>28</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172">
+        <v>0.175</v>
+      </c>
+      <c r="B172">
+        <v>0.37</v>
+      </c>
+      <c r="C172">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D172">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>28</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173">
+        <v>0.176</v>
+      </c>
+      <c r="B173">
+        <v>0.37</v>
+      </c>
+      <c r="C173">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D173">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>28</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174">
+        <v>0.177</v>
+      </c>
+      <c r="B174">
+        <v>0.37</v>
+      </c>
+      <c r="C174">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D174">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>28</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175">
+        <v>0.178</v>
+      </c>
+      <c r="B175">
+        <v>0.37</v>
+      </c>
+      <c r="C175">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D175">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>28</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176">
+        <v>0.179</v>
+      </c>
+      <c r="B176">
+        <v>0.37</v>
+      </c>
+      <c r="C176">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D176">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>28</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177">
+        <v>0.18</v>
+      </c>
+      <c r="B177">
+        <v>0.37</v>
+      </c>
+      <c r="C177">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D177">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>28</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178">
+        <v>0.181</v>
+      </c>
+      <c r="B178">
+        <v>0.37</v>
+      </c>
+      <c r="C178">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D178">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>28</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179">
+        <v>0.182</v>
+      </c>
+      <c r="B179">
+        <v>0.37</v>
+      </c>
+      <c r="C179">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D179">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>28</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180">
+        <v>0.183</v>
+      </c>
+      <c r="B180">
+        <v>0.37</v>
+      </c>
+      <c r="C180">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D180">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>28</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181">
+        <v>0.184</v>
+      </c>
+      <c r="B181">
+        <v>0.37</v>
+      </c>
+      <c r="C181">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D181">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>28</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182">
+        <v>0.185</v>
+      </c>
+      <c r="B182">
+        <v>0.37</v>
+      </c>
+      <c r="C182">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D182">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>28</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183">
+        <v>0.186</v>
+      </c>
+      <c r="B183">
+        <v>0.37</v>
+      </c>
+      <c r="C183">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D183">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>28</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184">
+        <v>0.187</v>
+      </c>
+      <c r="B184">
+        <v>0.37</v>
+      </c>
+      <c r="C184">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D184">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>28</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185">
+        <v>0.188</v>
+      </c>
+      <c r="B185">
+        <v>0.37</v>
+      </c>
+      <c r="C185">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D185">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>28</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186">
+        <v>0.189</v>
+      </c>
+      <c r="B186">
+        <v>0.37</v>
+      </c>
+      <c r="C186">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D186">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>28</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187">
+        <v>0.19</v>
+      </c>
+      <c r="B187">
+        <v>0.37</v>
+      </c>
+      <c r="C187">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D187">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>28</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188">
+        <v>0.191</v>
+      </c>
+      <c r="B188">
+        <v>0.37</v>
+      </c>
+      <c r="C188">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D188">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>28</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189">
+        <v>0.192</v>
+      </c>
+      <c r="B189">
+        <v>0.37</v>
+      </c>
+      <c r="C189">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D189">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>28</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190">
+        <v>0.193</v>
+      </c>
+      <c r="B190">
+        <v>0.37</v>
+      </c>
+      <c r="C190">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D190">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>28</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191">
+        <v>0.194</v>
+      </c>
+      <c r="B191">
+        <v>0.37</v>
+      </c>
+      <c r="C191">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D191">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>28</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192">
+        <v>0.195</v>
+      </c>
+      <c r="B192">
+        <v>0.37</v>
+      </c>
+      <c r="C192">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D192">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>28</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193">
+        <v>0.196</v>
+      </c>
+      <c r="B193">
+        <v>0.37</v>
+      </c>
+      <c r="C193">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D193">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>28</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194">
+        <v>0.197</v>
+      </c>
+      <c r="B194">
+        <v>0.37</v>
+      </c>
+      <c r="C194">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D194">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>28</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195">
+        <v>0.198</v>
+      </c>
+      <c r="B195">
+        <v>0.37</v>
+      </c>
+      <c r="C195">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D195">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>28</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196">
+        <v>0.199</v>
+      </c>
+      <c r="B196">
+        <v>0.37</v>
+      </c>
+      <c r="C196">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D196">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>28</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197">
+        <v>0.2</v>
+      </c>
+      <c r="B197">
+        <v>0.37</v>
+      </c>
+      <c r="C197">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D197">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>28</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198">
+        <v>0.201</v>
+      </c>
+      <c r="B198">
+        <v>0.37</v>
+      </c>
+      <c r="C198">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D198">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>28</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199">
+        <v>0.202</v>
+      </c>
+      <c r="B199">
+        <v>0.37</v>
+      </c>
+      <c r="C199">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D199">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>28</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200">
+        <v>0.203</v>
+      </c>
+      <c r="B200">
+        <v>0.37</v>
+      </c>
+      <c r="C200">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D200">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>28</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201">
+        <v>0.204</v>
+      </c>
+      <c r="B201">
+        <v>0.37</v>
+      </c>
+      <c r="C201">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D201">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>28</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202">
+        <v>0.205</v>
+      </c>
+      <c r="B202">
+        <v>0.37</v>
+      </c>
+      <c r="C202">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D202">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>28</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203">
+        <v>0.206</v>
+      </c>
+      <c r="B203">
+        <v>0.37</v>
+      </c>
+      <c r="C203">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D203">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>28</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204">
+        <v>0.207</v>
+      </c>
+      <c r="B204">
+        <v>0.37</v>
+      </c>
+      <c r="C204">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D204">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>28</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205">
+        <v>0.208</v>
+      </c>
+      <c r="B205">
+        <v>0.37</v>
+      </c>
+      <c r="C205">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D205">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>28</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206">
+        <v>0.209</v>
+      </c>
+      <c r="B206">
+        <v>0.37</v>
+      </c>
+      <c r="C206">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D206">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>28</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207">
+        <v>0.21</v>
+      </c>
+      <c r="B207">
+        <v>0.37</v>
+      </c>
+      <c r="C207">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D207">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>28</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208">
+        <v>0.211</v>
+      </c>
+      <c r="B208">
+        <v>0.37</v>
+      </c>
+      <c r="C208">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D208">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>28</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209">
+        <v>0.212</v>
+      </c>
+      <c r="B209">
+        <v>0.37</v>
+      </c>
+      <c r="C209">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D209">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>28</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210">
+        <v>0.213</v>
+      </c>
+      <c r="B210">
+        <v>0.37</v>
+      </c>
+      <c r="C210">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D210">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>28</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211">
+        <v>0.214</v>
+      </c>
+      <c r="B211">
+        <v>0.37</v>
+      </c>
+      <c r="C211">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D211">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>28</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212">
+        <v>0.215</v>
+      </c>
+      <c r="B212">
+        <v>0.37</v>
+      </c>
+      <c r="C212">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D212">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>28</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213">
+        <v>0.216</v>
+      </c>
+      <c r="B213">
+        <v>0.37</v>
+      </c>
+      <c r="C213">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D213">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>28</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214">
+        <v>0.217</v>
+      </c>
+      <c r="B214">
+        <v>0.37</v>
+      </c>
+      <c r="C214">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D214">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>28</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215">
+        <v>0.218</v>
+      </c>
+      <c r="B215">
+        <v>0.37</v>
+      </c>
+      <c r="C215">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D215">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>28</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216">
+        <v>0.219</v>
+      </c>
+      <c r="B216">
+        <v>0.37</v>
+      </c>
+      <c r="C216">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D216">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>28</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217">
+        <v>0.22</v>
+      </c>
+      <c r="B217">
+        <v>0.37</v>
+      </c>
+      <c r="C217">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D217">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>28</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218">
+        <v>0.221</v>
+      </c>
+      <c r="B218">
+        <v>0.37</v>
+      </c>
+      <c r="C218">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D218">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>28</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219">
+        <v>0.222</v>
+      </c>
+      <c r="B219">
+        <v>0.37</v>
+      </c>
+      <c r="C219">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D219">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>28</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220">
+        <v>0.223</v>
+      </c>
+      <c r="B220">
+        <v>0.37</v>
+      </c>
+      <c r="C220">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D220">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>28</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221">
+        <v>0.224</v>
+      </c>
+      <c r="B221">
+        <v>0.37</v>
+      </c>
+      <c r="C221">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D221">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>28</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222">
+        <v>0.225</v>
+      </c>
+      <c r="B222">
+        <v>0.37</v>
+      </c>
+      <c r="C222">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D222">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>28</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223">
+        <v>0.226</v>
+      </c>
+      <c r="B223">
+        <v>0.37</v>
+      </c>
+      <c r="C223">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D223">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>28</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224">
+        <v>0.227</v>
+      </c>
+      <c r="B224">
+        <v>0.37</v>
+      </c>
+      <c r="C224">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D224">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>28</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225">
+        <v>0.228</v>
+      </c>
+      <c r="B225">
+        <v>0.37</v>
+      </c>
+      <c r="C225">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D225">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>28</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226">
+        <v>0.229</v>
+      </c>
+      <c r="B226">
+        <v>0.37</v>
+      </c>
+      <c r="C226">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D226">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>28</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227">
+        <v>0.23</v>
+      </c>
+      <c r="B227">
+        <v>0.37</v>
+      </c>
+      <c r="C227">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D227">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>28</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228">
+        <v>0.231</v>
+      </c>
+      <c r="B228">
+        <v>0.37</v>
+      </c>
+      <c r="C228">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D228">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>28</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229">
+        <v>0.232</v>
+      </c>
+      <c r="B229">
+        <v>0.37</v>
+      </c>
+      <c r="C229">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D229">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>28</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230">
+        <v>0.233</v>
+      </c>
+      <c r="B230">
+        <v>0.37</v>
+      </c>
+      <c r="C230">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D230">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>28</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231">
+        <v>0.234</v>
+      </c>
+      <c r="B231">
+        <v>0.37</v>
+      </c>
+      <c r="C231">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D231">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>28</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232">
+        <v>0.235</v>
+      </c>
+      <c r="B232">
+        <v>0.37</v>
+      </c>
+      <c r="C232">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D232">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>28</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233">
+        <v>0.236</v>
+      </c>
+      <c r="B233">
+        <v>0.37</v>
+      </c>
+      <c r="C233">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D233">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>28</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234">
+        <v>0.237</v>
+      </c>
+      <c r="B234">
+        <v>0.37</v>
+      </c>
+      <c r="C234">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D234">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>28</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235">
+        <v>0.238</v>
+      </c>
+      <c r="B235">
+        <v>0.37</v>
+      </c>
+      <c r="C235">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D235">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>28</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236">
+        <v>0.239</v>
+      </c>
+      <c r="B236">
+        <v>0.37</v>
+      </c>
+      <c r="C236">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D236">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>28</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237">
+        <v>0.24</v>
+      </c>
+      <c r="B237">
+        <v>0.37</v>
+      </c>
+      <c r="C237">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D237">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>28</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238">
+        <v>0.241</v>
+      </c>
+      <c r="B238">
+        <v>0.37</v>
+      </c>
+      <c r="C238">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D238">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>28</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239">
+        <v>0.242</v>
+      </c>
+      <c r="B239">
+        <v>0.37</v>
+      </c>
+      <c r="C239">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D239">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>28</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240">
+        <v>0.243</v>
+      </c>
+      <c r="B240">
+        <v>0.37</v>
+      </c>
+      <c r="C240">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D240">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>28</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241">
+        <v>0.244</v>
+      </c>
+      <c r="B241">
+        <v>0.37</v>
+      </c>
+      <c r="C241">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D241">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>28</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242">
+        <v>0.245</v>
+      </c>
+      <c r="B242">
+        <v>0.37</v>
+      </c>
+      <c r="C242">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D242">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>28</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243">
+        <v>0.246</v>
+      </c>
+      <c r="B243">
+        <v>0.37</v>
+      </c>
+      <c r="C243">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D243">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>28</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244">
+        <v>0.247</v>
+      </c>
+      <c r="B244">
+        <v>0.37</v>
+      </c>
+      <c r="C244">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D244">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244">
+        <v>28</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245">
+        <v>0.248</v>
+      </c>
+      <c r="B245">
+        <v>0.37</v>
+      </c>
+      <c r="C245">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D245">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>28</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246">
+        <v>0.249</v>
+      </c>
+      <c r="B246">
+        <v>0.37</v>
+      </c>
+      <c r="C246">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D246">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>28</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247">
+        <v>0.25</v>
+      </c>
+      <c r="B247">
+        <v>0.37</v>
+      </c>
+      <c r="C247">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D247">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>28</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248">
+        <v>0.251</v>
+      </c>
+      <c r="B248">
+        <v>0.37</v>
+      </c>
+      <c r="C248">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D248">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>28</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249">
+        <v>0.252</v>
+      </c>
+      <c r="B249">
+        <v>0.37</v>
+      </c>
+      <c r="C249">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D249">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>28</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="H249">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250">
+        <v>0.253</v>
+      </c>
+      <c r="B250">
+        <v>0.37</v>
+      </c>
+      <c r="C250">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D250">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>28</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251">
+        <v>0.254</v>
+      </c>
+      <c r="B251">
+        <v>0.37</v>
+      </c>
+      <c r="C251">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D251">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>28</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252">
+        <v>0.255</v>
+      </c>
+      <c r="B252">
+        <v>0.37</v>
+      </c>
+      <c r="C252">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D252">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>28</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253">
+        <v>0.256</v>
+      </c>
+      <c r="B253">
+        <v>0.37</v>
+      </c>
+      <c r="C253">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D253">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>28</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254">
+        <v>0.257</v>
+      </c>
+      <c r="B254">
+        <v>0.37</v>
+      </c>
+      <c r="C254">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D254">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>28</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255">
+        <v>0.258</v>
+      </c>
+      <c r="B255">
+        <v>0.37</v>
+      </c>
+      <c r="C255">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D255">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>28</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256">
+        <v>0.259</v>
+      </c>
+      <c r="B256">
+        <v>0.37</v>
+      </c>
+      <c r="C256">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D256">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>28</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257">
+        <v>0.26</v>
+      </c>
+      <c r="B257">
+        <v>0.37</v>
+      </c>
+      <c r="C257">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D257">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>28</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="H257">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258">
+        <v>0.261</v>
+      </c>
+      <c r="B258">
+        <v>0.37</v>
+      </c>
+      <c r="C258">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D258">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>28</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259">
+        <v>0.262</v>
+      </c>
+      <c r="B259">
+        <v>0.37</v>
+      </c>
+      <c r="C259">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D259">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>28</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260">
+        <v>0.263</v>
+      </c>
+      <c r="B260">
+        <v>0.37</v>
+      </c>
+      <c r="C260">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D260">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260">
+        <v>28</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261">
+        <v>0.264</v>
+      </c>
+      <c r="B261">
+        <v>0.37</v>
+      </c>
+      <c r="C261">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D261">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>28</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262">
+        <v>0.265</v>
+      </c>
+      <c r="B262">
+        <v>0.37</v>
+      </c>
+      <c r="C262">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D262">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>28</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263">
+        <v>0.266</v>
+      </c>
+      <c r="B263">
+        <v>0.37</v>
+      </c>
+      <c r="C263">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D263">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>28</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264">
+        <v>0.267</v>
+      </c>
+      <c r="B264">
+        <v>0.37</v>
+      </c>
+      <c r="C264">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D264">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>28</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265">
+        <v>0.268</v>
+      </c>
+      <c r="B265">
+        <v>0.37</v>
+      </c>
+      <c r="C265">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D265">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <v>28</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266">
+        <v>0.269</v>
+      </c>
+      <c r="B266">
+        <v>0.37</v>
+      </c>
+      <c r="C266">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D266">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266">
+        <v>28</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267">
+        <v>0.27</v>
+      </c>
+      <c r="B267">
+        <v>0.37</v>
+      </c>
+      <c r="C267">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D267">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <v>28</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268">
+        <v>0.271</v>
+      </c>
+      <c r="B268">
+        <v>0.37</v>
+      </c>
+      <c r="C268">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D268">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268">
+        <v>28</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="H268">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269">
+        <v>0.272</v>
+      </c>
+      <c r="B269">
+        <v>0.37</v>
+      </c>
+      <c r="C269">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D269">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>28</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270">
+        <v>0.273</v>
+      </c>
+      <c r="B270">
+        <v>0.37</v>
+      </c>
+      <c r="C270">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D270">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="F270">
+        <v>28</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271">
+        <v>0.274</v>
+      </c>
+      <c r="B271">
+        <v>0.37</v>
+      </c>
+      <c r="C271">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D271">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271">
+        <v>28</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272">
+        <v>0.275</v>
+      </c>
+      <c r="B272">
+        <v>0.37</v>
+      </c>
+      <c r="C272">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D272">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <v>28</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="H272">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273">
+        <v>0.276</v>
+      </c>
+      <c r="B273">
+        <v>0.37</v>
+      </c>
+      <c r="C273">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D273">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273">
+        <v>28</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274">
+        <v>0.277</v>
+      </c>
+      <c r="B274">
+        <v>0.37</v>
+      </c>
+      <c r="C274">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D274">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274">
+        <v>28</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275">
+        <v>0.278</v>
+      </c>
+      <c r="B275">
+        <v>0.37</v>
+      </c>
+      <c r="C275">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D275">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>28</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="H275">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276">
+        <v>0.279</v>
+      </c>
+      <c r="B276">
+        <v>0.37</v>
+      </c>
+      <c r="C276">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D276">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>28</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277">
+        <v>0.28</v>
+      </c>
+      <c r="B277">
+        <v>0.37</v>
+      </c>
+      <c r="C277">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D277">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>28</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278">
+        <v>0.281</v>
+      </c>
+      <c r="B278">
+        <v>0.37</v>
+      </c>
+      <c r="C278">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D278">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>28</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="H278">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279">
+        <v>0.282</v>
+      </c>
+      <c r="B279">
+        <v>0.37</v>
+      </c>
+      <c r="C279">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D279">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>28</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280">
+        <v>0.283</v>
+      </c>
+      <c r="B280">
+        <v>0.37</v>
+      </c>
+      <c r="C280">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D280">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>28</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="H280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281">
+        <v>0.284</v>
+      </c>
+      <c r="B281">
+        <v>0.37</v>
+      </c>
+      <c r="C281">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D281">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>28</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="H281">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282">
+        <v>0.285</v>
+      </c>
+      <c r="B282">
+        <v>0.37</v>
+      </c>
+      <c r="C282">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D282">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>28</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="H282">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283">
+        <v>0.286</v>
+      </c>
+      <c r="B283">
+        <v>0.37</v>
+      </c>
+      <c r="C283">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D283">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>28</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284">
+        <v>0.287</v>
+      </c>
+      <c r="B284">
+        <v>0.37</v>
+      </c>
+      <c r="C284">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D284">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>28</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+      <c r="H284">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285">
+        <v>0.288</v>
+      </c>
+      <c r="B285">
+        <v>0.37</v>
+      </c>
+      <c r="C285">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D285">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>28</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="H285">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286">
+        <v>0.289</v>
+      </c>
+      <c r="B286">
+        <v>0.37</v>
+      </c>
+      <c r="C286">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D286">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>28</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287">
+        <v>0.29</v>
+      </c>
+      <c r="B287">
+        <v>0.37</v>
+      </c>
+      <c r="C287">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D287">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287">
+        <v>28</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+      <c r="H287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288">
+        <v>0.291</v>
+      </c>
+      <c r="B288">
+        <v>0.37</v>
+      </c>
+      <c r="C288">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D288">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288">
+        <v>28</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289">
+        <v>0.292</v>
+      </c>
+      <c r="B289">
+        <v>0.37</v>
+      </c>
+      <c r="C289">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D289">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>28</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="H289">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290">
+        <v>0.293</v>
+      </c>
+      <c r="B290">
+        <v>0.37</v>
+      </c>
+      <c r="C290">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D290">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>28</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291">
+        <v>0.294</v>
+      </c>
+      <c r="B291">
+        <v>0.37</v>
+      </c>
+      <c r="C291">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D291">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>28</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292">
+        <v>0.295</v>
+      </c>
+      <c r="B292">
+        <v>0.37</v>
+      </c>
+      <c r="C292">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D292">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>28</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+      <c r="H292">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293">
+        <v>0.296</v>
+      </c>
+      <c r="B293">
+        <v>0.37</v>
+      </c>
+      <c r="C293">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D293">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293">
+        <v>28</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294">
+        <v>0.297</v>
+      </c>
+      <c r="B294">
+        <v>0.37</v>
+      </c>
+      <c r="C294">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D294">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <v>28</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295">
+        <v>0.298</v>
+      </c>
+      <c r="B295">
+        <v>0.37</v>
+      </c>
+      <c r="C295">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D295">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>28</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+      <c r="H295">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296">
+        <v>0.299</v>
+      </c>
+      <c r="B296">
+        <v>0.37</v>
+      </c>
+      <c r="C296">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="D296">
+        <v>0.4596273291925466</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>28</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="H296">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/edcr/Results.xlsx
+++ b/analysis/edcr/Results.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -863,10 +863,10 @@
         <v>94</v>
       </c>
       <c r="G18">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -889,10 +889,10 @@
         <v>94</v>
       </c>
       <c r="G19">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -915,10 +915,10 @@
         <v>94</v>
       </c>
       <c r="G20">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -941,10 +941,10 @@
         <v>94</v>
       </c>
       <c r="G21">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -967,10 +967,10 @@
         <v>94</v>
       </c>
       <c r="G22">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -993,10 +993,10 @@
         <v>94</v>
       </c>
       <c r="G23">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1019,10 +1019,10 @@
         <v>94</v>
       </c>
       <c r="G24">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1045,10 +1045,10 @@
         <v>94</v>
       </c>
       <c r="G25">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H25">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1071,10 +1071,10 @@
         <v>94</v>
       </c>
       <c r="G26">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H26">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1097,10 +1097,10 @@
         <v>94</v>
       </c>
       <c r="G27">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H27">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1123,10 +1123,10 @@
         <v>94</v>
       </c>
       <c r="G28">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1149,10 +1149,10 @@
         <v>94</v>
       </c>
       <c r="G29">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H29">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1175,10 +1175,10 @@
         <v>94</v>
       </c>
       <c r="G30">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H30">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1201,10 +1201,10 @@
         <v>94</v>
       </c>
       <c r="G31">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H31">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1227,10 +1227,10 @@
         <v>94</v>
       </c>
       <c r="G32">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H32">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1253,10 +1253,10 @@
         <v>94</v>
       </c>
       <c r="G33">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H33">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1279,10 +1279,10 @@
         <v>94</v>
       </c>
       <c r="G34">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H34">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1305,10 +1305,10 @@
         <v>94</v>
       </c>
       <c r="G35">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H35">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1331,10 +1331,10 @@
         <v>94</v>
       </c>
       <c r="G36">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H36">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1357,10 +1357,10 @@
         <v>94</v>
       </c>
       <c r="G37">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H37">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1383,10 +1383,10 @@
         <v>94</v>
       </c>
       <c r="G38">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H38">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1409,10 +1409,10 @@
         <v>94</v>
       </c>
       <c r="G39">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H39">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1435,10 +1435,10 @@
         <v>94</v>
       </c>
       <c r="G40">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H40">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1461,10 +1461,10 @@
         <v>94</v>
       </c>
       <c r="G41">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H41">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1487,10 +1487,10 @@
         <v>94</v>
       </c>
       <c r="G42">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H42">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1513,10 +1513,10 @@
         <v>94</v>
       </c>
       <c r="G43">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H43">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1539,10 +1539,10 @@
         <v>94</v>
       </c>
       <c r="G44">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H44">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1565,10 +1565,10 @@
         <v>94</v>
       </c>
       <c r="G45">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H45">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1591,10 +1591,10 @@
         <v>94</v>
       </c>
       <c r="G46">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H46">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1617,10 +1617,10 @@
         <v>94</v>
       </c>
       <c r="G47">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H47">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1643,10 +1643,10 @@
         <v>94</v>
       </c>
       <c r="G48">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H48">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1669,10 +1669,10 @@
         <v>94</v>
       </c>
       <c r="G49">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H49">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1695,10 +1695,10 @@
         <v>94</v>
       </c>
       <c r="G50">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H50">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1721,10 +1721,10 @@
         <v>94</v>
       </c>
       <c r="G51">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H51">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1747,10 +1747,10 @@
         <v>94</v>
       </c>
       <c r="G52">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H52">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1773,10 +1773,10 @@
         <v>94</v>
       </c>
       <c r="G53">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H53">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1799,10 +1799,10 @@
         <v>94</v>
       </c>
       <c r="G54">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H54">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1825,10 +1825,10 @@
         <v>94</v>
       </c>
       <c r="G55">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H55">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1851,10 +1851,10 @@
         <v>94</v>
       </c>
       <c r="G56">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H56">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1877,10 +1877,10 @@
         <v>94</v>
       </c>
       <c r="G57">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H57">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1903,10 +1903,10 @@
         <v>94</v>
       </c>
       <c r="G58">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H58">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1929,10 +1929,10 @@
         <v>94</v>
       </c>
       <c r="G59">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H59">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1955,10 +1955,10 @@
         <v>94</v>
       </c>
       <c r="G60">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H60">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1981,10 +1981,10 @@
         <v>94</v>
       </c>
       <c r="G61">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H61">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2007,10 +2007,10 @@
         <v>94</v>
       </c>
       <c r="G62">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H62">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2033,10 +2033,10 @@
         <v>94</v>
       </c>
       <c r="G63">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H63">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2059,10 +2059,10 @@
         <v>94</v>
       </c>
       <c r="G64">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H64">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2085,10 +2085,10 @@
         <v>94</v>
       </c>
       <c r="G65">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H65">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2111,10 +2111,10 @@
         <v>94</v>
       </c>
       <c r="G66">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H66">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2137,10 +2137,10 @@
         <v>94</v>
       </c>
       <c r="G67">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H67">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2163,10 +2163,10 @@
         <v>94</v>
       </c>
       <c r="G68">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H68">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2189,10 +2189,10 @@
         <v>94</v>
       </c>
       <c r="G69">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H69">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2215,10 +2215,10 @@
         <v>94</v>
       </c>
       <c r="G70">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H70">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2241,10 +2241,10 @@
         <v>94</v>
       </c>
       <c r="G71">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H71">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2267,10 +2267,10 @@
         <v>94</v>
       </c>
       <c r="G72">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H72">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2293,10 +2293,10 @@
         <v>94</v>
       </c>
       <c r="G73">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H73">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2319,10 +2319,10 @@
         <v>94</v>
       </c>
       <c r="G74">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H74">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2345,10 +2345,10 @@
         <v>94</v>
       </c>
       <c r="G75">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H75">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2371,10 +2371,10 @@
         <v>94</v>
       </c>
       <c r="G76">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H76">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2397,10 +2397,10 @@
         <v>94</v>
       </c>
       <c r="G77">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H77">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2423,10 +2423,10 @@
         <v>94</v>
       </c>
       <c r="G78">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H78">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2449,10 +2449,10 @@
         <v>94</v>
       </c>
       <c r="G79">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H79">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2475,10 +2475,10 @@
         <v>94</v>
       </c>
       <c r="G80">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H80">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2501,10 +2501,10 @@
         <v>94</v>
       </c>
       <c r="G81">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H81">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2527,10 +2527,10 @@
         <v>94</v>
       </c>
       <c r="G82">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H82">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2553,10 +2553,10 @@
         <v>94</v>
       </c>
       <c r="G83">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H83">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2579,10 +2579,10 @@
         <v>94</v>
       </c>
       <c r="G84">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H84">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2605,10 +2605,10 @@
         <v>94</v>
       </c>
       <c r="G85">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H85">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2631,10 +2631,10 @@
         <v>94</v>
       </c>
       <c r="G86">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H86">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2657,10 +2657,10 @@
         <v>94</v>
       </c>
       <c r="G87">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H87">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2683,10 +2683,10 @@
         <v>94</v>
       </c>
       <c r="G88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H88">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2709,10 +2709,10 @@
         <v>94</v>
       </c>
       <c r="G89">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H89">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2735,10 +2735,10 @@
         <v>94</v>
       </c>
       <c r="G90">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H90">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2761,10 +2761,10 @@
         <v>94</v>
       </c>
       <c r="G91">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H91">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2787,10 +2787,10 @@
         <v>94</v>
       </c>
       <c r="G92">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H92">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2813,10 +2813,10 @@
         <v>94</v>
       </c>
       <c r="G93">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H93">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2839,10 +2839,10 @@
         <v>94</v>
       </c>
       <c r="G94">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H94">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2865,10 +2865,10 @@
         <v>94</v>
       </c>
       <c r="G95">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H95">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2891,10 +2891,10 @@
         <v>94</v>
       </c>
       <c r="G96">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H96">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2917,10 +2917,10 @@
         <v>94</v>
       </c>
       <c r="G97">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H97">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2943,10 +2943,10 @@
         <v>94</v>
       </c>
       <c r="G98">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H98">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2969,10 +2969,10 @@
         <v>94</v>
       </c>
       <c r="G99">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H99">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2995,10 +2995,10 @@
         <v>94</v>
       </c>
       <c r="G100">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H100">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/edcr/Results.xlsx
+++ b/analysis/edcr/Results.xlsx
@@ -432,25 +432,25 @@
         <v>0.001</v>
       </c>
       <c r="B2">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C2">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D2">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,25 +458,25 @@
         <v>0.002</v>
       </c>
       <c r="B3">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C3">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D3">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -484,25 +484,25 @@
         <v>0.003</v>
       </c>
       <c r="B4">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C4">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D4">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -510,25 +510,25 @@
         <v>0.004</v>
       </c>
       <c r="B5">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C5">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D5">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -536,25 +536,25 @@
         <v>0.005</v>
       </c>
       <c r="B6">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C6">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D6">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -562,25 +562,25 @@
         <v>0.006</v>
       </c>
       <c r="B7">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C7">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D7">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -588,25 +588,25 @@
         <v>0.007</v>
       </c>
       <c r="B8">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C8">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D8">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -614,25 +614,25 @@
         <v>0.008</v>
       </c>
       <c r="B9">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C9">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D9">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -640,25 +640,25 @@
         <v>0.009000000000000001</v>
       </c>
       <c r="B10">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C10">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D10">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -666,25 +666,25 @@
         <v>0.01</v>
       </c>
       <c r="B11">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C11">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D11">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -692,25 +692,25 @@
         <v>0.011</v>
       </c>
       <c r="B12">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C12">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D12">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -718,25 +718,25 @@
         <v>0.012</v>
       </c>
       <c r="B13">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C13">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D13">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -744,25 +744,25 @@
         <v>0.013</v>
       </c>
       <c r="B14">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C14">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D14">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -770,25 +770,25 @@
         <v>0.014</v>
       </c>
       <c r="B15">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C15">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D15">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -796,25 +796,25 @@
         <v>0.015</v>
       </c>
       <c r="B16">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C16">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D16">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -822,25 +822,25 @@
         <v>0.016</v>
       </c>
       <c r="B17">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C17">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D17">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -848,25 +848,25 @@
         <v>0.017</v>
       </c>
       <c r="B18">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C18">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D18">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G18">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -874,25 +874,25 @@
         <v>0.018</v>
       </c>
       <c r="B19">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C19">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D19">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G19">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -900,25 +900,25 @@
         <v>0.019</v>
       </c>
       <c r="B20">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C20">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D20">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G20">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -926,25 +926,25 @@
         <v>0.02</v>
       </c>
       <c r="B21">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C21">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D21">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G21">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -952,25 +952,25 @@
         <v>0.021</v>
       </c>
       <c r="B22">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C22">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D22">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G22">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -978,25 +978,25 @@
         <v>0.022</v>
       </c>
       <c r="B23">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C23">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D23">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G23">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1004,25 +1004,25 @@
         <v>0.023</v>
       </c>
       <c r="B24">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C24">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D24">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G24">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1030,25 +1030,25 @@
         <v>0.024</v>
       </c>
       <c r="B25">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C25">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D25">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G25">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1056,25 +1056,25 @@
         <v>0.025</v>
       </c>
       <c r="B26">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C26">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D26">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G26">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1082,25 +1082,25 @@
         <v>0.026</v>
       </c>
       <c r="B27">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C27">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D27">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G27">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1108,25 +1108,25 @@
         <v>0.027</v>
       </c>
       <c r="B28">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C28">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D28">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G28">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1134,25 +1134,25 @@
         <v>0.028</v>
       </c>
       <c r="B29">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C29">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D29">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G29">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1160,25 +1160,25 @@
         <v>0.029</v>
       </c>
       <c r="B30">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C30">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D30">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G30">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1186,25 +1186,25 @@
         <v>0.03</v>
       </c>
       <c r="B31">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C31">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D31">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G31">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1212,25 +1212,25 @@
         <v>0.031</v>
       </c>
       <c r="B32">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C32">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D32">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G32">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1238,25 +1238,25 @@
         <v>0.032</v>
       </c>
       <c r="B33">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C33">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D33">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G33">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1264,25 +1264,25 @@
         <v>0.033</v>
       </c>
       <c r="B34">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C34">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D34">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G34">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1290,25 +1290,25 @@
         <v>0.034</v>
       </c>
       <c r="B35">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C35">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D35">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G35">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1316,25 +1316,25 @@
         <v>0.035</v>
       </c>
       <c r="B36">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C36">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D36">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G36">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1342,25 +1342,25 @@
         <v>0.036</v>
       </c>
       <c r="B37">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C37">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D37">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G37">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1368,25 +1368,25 @@
         <v>0.037</v>
       </c>
       <c r="B38">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C38">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D38">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G38">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1394,25 +1394,25 @@
         <v>0.038</v>
       </c>
       <c r="B39">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C39">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D39">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G39">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1420,25 +1420,25 @@
         <v>0.039</v>
       </c>
       <c r="B40">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C40">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D40">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G40">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1446,25 +1446,25 @@
         <v>0.04</v>
       </c>
       <c r="B41">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C41">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D41">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G41">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1472,25 +1472,25 @@
         <v>0.041</v>
       </c>
       <c r="B42">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C42">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D42">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G42">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1498,25 +1498,25 @@
         <v>0.042</v>
       </c>
       <c r="B43">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C43">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D43">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G43">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1524,25 +1524,25 @@
         <v>0.043</v>
       </c>
       <c r="B44">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C44">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D44">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G44">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1550,25 +1550,25 @@
         <v>0.044</v>
       </c>
       <c r="B45">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C45">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D45">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G45">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1576,25 +1576,25 @@
         <v>0.045</v>
       </c>
       <c r="B46">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C46">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D46">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G46">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1602,25 +1602,25 @@
         <v>0.046</v>
       </c>
       <c r="B47">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C47">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D47">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G47">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1628,25 +1628,25 @@
         <v>0.047</v>
       </c>
       <c r="B48">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C48">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D48">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G48">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1654,25 +1654,25 @@
         <v>0.048</v>
       </c>
       <c r="B49">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C49">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D49">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G49">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1680,25 +1680,25 @@
         <v>0.049</v>
       </c>
       <c r="B50">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C50">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D50">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G50">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1706,25 +1706,25 @@
         <v>0.05</v>
       </c>
       <c r="B51">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C51">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D51">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G51">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1732,25 +1732,25 @@
         <v>0.051</v>
       </c>
       <c r="B52">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C52">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D52">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G52">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1758,25 +1758,25 @@
         <v>0.052</v>
       </c>
       <c r="B53">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C53">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D53">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G53">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1784,25 +1784,25 @@
         <v>0.053</v>
       </c>
       <c r="B54">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C54">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D54">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G54">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1810,25 +1810,25 @@
         <v>0.054</v>
       </c>
       <c r="B55">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C55">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D55">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G55">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1836,25 +1836,25 @@
         <v>0.055</v>
       </c>
       <c r="B56">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C56">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D56">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G56">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1862,25 +1862,25 @@
         <v>0.056</v>
       </c>
       <c r="B57">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C57">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D57">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G57">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1888,25 +1888,25 @@
         <v>0.057</v>
       </c>
       <c r="B58">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C58">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D58">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G58">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1914,25 +1914,25 @@
         <v>0.058</v>
       </c>
       <c r="B59">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C59">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D59">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G59">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1940,25 +1940,25 @@
         <v>0.059</v>
       </c>
       <c r="B60">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C60">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D60">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G60">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1966,25 +1966,25 @@
         <v>0.06</v>
       </c>
       <c r="B61">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C61">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D61">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G61">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1992,25 +1992,25 @@
         <v>0.061</v>
       </c>
       <c r="B62">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C62">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D62">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G62">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2018,25 +2018,25 @@
         <v>0.062</v>
       </c>
       <c r="B63">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C63">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D63">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G63">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2044,25 +2044,25 @@
         <v>0.063</v>
       </c>
       <c r="B64">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C64">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D64">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G64">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2070,25 +2070,25 @@
         <v>0.064</v>
       </c>
       <c r="B65">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C65">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D65">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G65">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2096,25 +2096,25 @@
         <v>0.065</v>
       </c>
       <c r="B66">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C66">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D66">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G66">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2122,25 +2122,25 @@
         <v>0.066</v>
       </c>
       <c r="B67">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C67">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D67">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G67">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2148,25 +2148,25 @@
         <v>0.067</v>
       </c>
       <c r="B68">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C68">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D68">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G68">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2174,25 +2174,25 @@
         <v>0.068</v>
       </c>
       <c r="B69">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C69">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D69">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G69">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2200,25 +2200,25 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="B70">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C70">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D70">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G70">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2226,25 +2226,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B71">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C71">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D71">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G71">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2252,25 +2252,25 @@
         <v>0.07100000000000001</v>
       </c>
       <c r="B72">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C72">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D72">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G72">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2278,25 +2278,25 @@
         <v>0.07200000000000001</v>
       </c>
       <c r="B73">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C73">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D73">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G73">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2304,25 +2304,25 @@
         <v>0.073</v>
       </c>
       <c r="B74">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C74">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D74">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G74">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2330,25 +2330,25 @@
         <v>0.074</v>
       </c>
       <c r="B75">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C75">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D75">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G75">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2356,25 +2356,25 @@
         <v>0.075</v>
       </c>
       <c r="B76">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C76">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D76">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G76">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2382,25 +2382,25 @@
         <v>0.076</v>
       </c>
       <c r="B77">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C77">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D77">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G77">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2408,25 +2408,25 @@
         <v>0.077</v>
       </c>
       <c r="B78">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C78">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D78">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G78">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2434,25 +2434,25 @@
         <v>0.078</v>
       </c>
       <c r="B79">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C79">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D79">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G79">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2460,25 +2460,25 @@
         <v>0.079</v>
       </c>
       <c r="B80">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C80">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D80">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G80">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2486,25 +2486,25 @@
         <v>0.08</v>
       </c>
       <c r="B81">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C81">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D81">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G81">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2512,25 +2512,25 @@
         <v>0.081</v>
       </c>
       <c r="B82">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C82">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D82">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G82">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2538,25 +2538,25 @@
         <v>0.082</v>
       </c>
       <c r="B83">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C83">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D83">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G83">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2564,25 +2564,25 @@
         <v>0.083</v>
       </c>
       <c r="B84">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C84">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D84">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G84">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2590,25 +2590,25 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B85">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C85">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D85">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G85">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2616,25 +2616,25 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="B86">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C86">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D86">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G86">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2642,25 +2642,25 @@
         <v>0.08600000000000001</v>
       </c>
       <c r="B87">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C87">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D87">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G87">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2668,25 +2668,25 @@
         <v>0.08700000000000001</v>
       </c>
       <c r="B88">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C88">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D88">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G88">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2694,25 +2694,25 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="B89">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C89">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D89">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G89">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2720,25 +2720,25 @@
         <v>0.089</v>
       </c>
       <c r="B90">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C90">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D90">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2746,25 +2746,25 @@
         <v>0.09</v>
       </c>
       <c r="B91">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C91">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D91">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G91">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2772,25 +2772,25 @@
         <v>0.091</v>
       </c>
       <c r="B92">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C92">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D92">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G92">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2798,25 +2798,25 @@
         <v>0.092</v>
       </c>
       <c r="B93">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C93">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D93">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G93">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2824,25 +2824,25 @@
         <v>0.093</v>
       </c>
       <c r="B94">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C94">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D94">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G94">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2850,25 +2850,25 @@
         <v>0.094</v>
       </c>
       <c r="B95">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C95">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D95">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G95">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2876,25 +2876,25 @@
         <v>0.095</v>
       </c>
       <c r="B96">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C96">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D96">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G96">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2902,25 +2902,25 @@
         <v>0.096</v>
       </c>
       <c r="B97">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C97">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D97">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G97">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2928,25 +2928,25 @@
         <v>0.097</v>
       </c>
       <c r="B98">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C98">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D98">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G98">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2954,25 +2954,25 @@
         <v>0.098</v>
       </c>
       <c r="B99">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C99">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D99">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G99">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2980,25 +2980,25 @@
         <v>0.099</v>
       </c>
       <c r="B100">
-        <v>0.4123711340206185</v>
+        <v>0.37</v>
       </c>
       <c r="C100">
-        <v>0.6557377049180327</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D100">
-        <v>0.5063291139240507</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G100">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
